--- a/server/IndiaTv.xlsx
+++ b/server/IndiaTv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Heading</t>
   </si>
@@ -29,284 +29,286 @@
   </si>
   <si>
     <t xml:space="preserve">
-      Women's Reservation Bill cleared in Cabinet meeting chaired by PM Modi: Sources    </t>
-  </si>
-  <si>
-    <t>The Women's Reservation Bill was cleared in the Cabinet meeting chaired by PM Modi, said sources on Monday.  According to sources, the bill is likely to be tabled in the new parliament tomorrow. The decision comes a day after several parties including Congress demanded the passage of the bill in the all-party meeting held on Sunday (September 17).They demand the bill to be passed in the new Parliament building during the special session. However, the government made no official reaction to their demand.Congress leader Adhir Ranjan Chowdhury after the meeting  said, "All opposition parties demanded the passage of women's reservation bill in this Parliament session." BJP ally and NCP leader Praful Patel said, "We appeal to the government to pass the women's reservation bill in this Parliament session."Several regional parties including the BJD and the BRS also pushed for tabling of the bill. BJD MP Pinaki Misra said a new era should begin from the new Parliament building and the women's reservation bill should be passed.Advertisement
- BRS leader Kavitha has been a prominent voice in renewing the demand for the passage of the bill in the parliament. In fact, she sat on a hunger strike and held agitation with leaders from other political parties and civil society organisations across India in March 2023. 
-Advertisement
-What is the Women's Reservation Bill?_x000D_
-The bill seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies. Women MPs account for less than 15 per cent of Lok Sabha strength while their representation is below 10 per cent in many state assemblies, data shows amid a renewed push for the women reservation bill pending for nearly 27 years. The bill was initially introduced in the parliament on September 12, 1996.Also read: Women's Reservation Bill: Why is this quota needed? Know about benefits and challenges | EXPLAINEDCurrent status of the bill_x000D_
-The last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move to reserve 33 per cent seats for women in Lok Sabha and state assemblies, but the bill lapsed as it could not be passed by Lok Sabha.</t>
+Live nowIndia TV-CNX Opinion Poll: BJP to sweep Haryana and Delhi, AAP-Congress alliance leads in Punjab    </t>
+  </si>
+  <si>
+    <t>Lok Sabha Elections 2024: Ahead of the assembly elections in five key states and next year's Lok Sabha polls, political parties are leaving no opportunity to campaign for their respective parties and lure voters to better their prospects. Amid this election season, India TV-CNX conducted an opinion poll to gauge the mood of the voters and predict which leader is likely to become the Prime Minister if elections are held today. In an earlier opinion poll conducted by India TV-CNX in July, results of which were telecast in "Desh Ki Awaz" special show on the channel, predicted a massive victory of Modi-led NDA's over Opposition if Lok Sabha polls were held then. So, will it be Narendra Modi again or Rahul Gandhi or someone else from I.N.D.I.A. bloc, what's the mood of voters now. Let's take a look.Advertisement
+ Latest India NewsAccording to the India TV-CNX Opinion Poll, the BJP is expected to get 53% of votes in Himachal Pradesh, while the Congress is likely to get 37% of votes. The poll also predicts 3 Lok Sabha seats for BJP in Himachal Pradesh, while Congress may have to settle with just one seat. According to the India TV-CNX Opinion Poll, the BJP is expected to get 18% of votes in Punjab, Aam Aadmi Party (AAP) and Congress are likely to get 28% and 25% of votes respectively. Shiromani Akali Dal led by Sukhbir Singh Badal is expected to get 19% of votes in Punjab. The poll predicts 6 Lok Sabha seats for AAP in Punjab, and Congress is likely to get 5 seats. Meanwhile, the BJP and Shiromani Akali Dal are likely to get only 1 Lok Sabha seat each in the state. Image Source : INDIA TVIndia TV-CNX Opinion Poll: PunjabAccording to the India TV-CNX Opinion Poll, the BJP is expected to get 52% of votes in Delhi, while Aam Aadmi Party (AAP) and Congress are likely to get 25% and 17% of votes respectively. As per the projection, the BJP is likely to win all 7 Lok Sabha seats again in Delhi.According to the India TV-CNX Opinion Poll, BJP is expected to get 53% of votes in Jharkhand, while Congress is likely to get 17% of votes. Hemant Soren-led Jharkhand Mukti Morcha (JMM) to get just 13% of votes in the state. The poll also predicts 12 Lok Sabha seats for BJP in Jharkhand, 1 each for AJSU and JMM.According to the India TV-CNX Opinion Poll, the BJP is expected to get 56% of votes in Goa, while Congress is likely to get 35% of votes. The saffron party is also expected to win both Lok Sabha seats in the state. Image Source : INDIA TV India TV-CNX Opinion Poll: GoaAccording to India TV-CNX Opinion Poll, the BJP is expected to get 32% of votes in Maharashtra, alliance partners Shiv Sena of Eknath Shinde and NCP (Ajit Pawar) to get 10% and 5% of votes respectively. The BJP-led alliance is expected to get 47% of votes in the state. Meanwhile, the Congress-led alliance is expected to get 42% of votes in Maharashtra. As per the opinion polls, the BJP is expected to get 22 seats in Maharashtra, while Congress is likely to get 9 seats. The prediction further shows that Eknath Shinde-led Shiv Sena to get 4 seats, while Uddhav Thackeray-led Sena is likely to get 8 seats. Further, there seats likely to be bagged by Sharad Pawar-led NCP, and Ajit Pawar-led NCP may get 2 seats in the state.  According to the India TV-CNX Opinion Poll, the BJP is expected to get 50% of votes in Jammu and Kashmir and Ladakh, while Congress is likely to get 10% of votes. As far as regional parties are concerned, Omar Abdullah's National Conference (JKNC) is expected to get 17% of votes, while Mehbooba Mufti's PDP is likely to get just 4% of votes. Ghulam Nabi Azad-led Democratic Progressive Azad Party (DPAP) is expected to get 7% of votes in Jammu and Kashmir and Ladakh.India TV-CNX Opinion Poll predicts 3 Lok Sabha seats for BJP in Jammu and Kashmir and Ladakh.  National Conference is likely to get 2 seats, while Ghulam Nabi Azad-led Democratic Progressive Azad Party (DPAP) is expected to win 1 seat. Image Source : INDIA TVIndia TV-CNX Opinion Poll: Jammu and Kashmir, LadakhAccording to the India TV-CNX opinion poll, the BJP is expected to get 59% of votes in Uttarakhand, while Congress is likely to get 39% of votes. The prediction also shows that the saffron party is likely to sweep all five seats in the state, if elections are held today. Image Source : INDIA TVIndia TV-CNX opinion poll: Uttarakhand The BJP is expected to get 61 per cent of votes in Gujarat while the Congress may secure 28 per cent vote share, according to the India TV-CNX opinion poll. The survey further predicts Aam Aadmi Party (AAP) to get just 8% of votes in the state. As per the survey, the saffron party is expected to sweep Gujarat by winning all 26 seats in the state.  Image Source : INDIA TVIndia TV-CNX opinion poll: GujaratAccording to India TV-CNX opinion poll, the BJP is expected to get 41 per cent of votes in Odisha, the Biju Janata Dal (BJD) is likely to get 45 per cent and Congress may get around 11 per cent vote share, if Lok Sabha elections are held today.In terms of seats, the survey predicts 8 Lok Sabha seats for the saffron party and 13 for Naveen Patnaik's BJD.Image Source : INDIA TVIndia TV-CNX opinion poll | OdishaIn West Bengal, which has 42 Lok Sabha seats, the BJP is expected to win 10 seats whereas Mamata's Trinamool Congress is likely to get 30 seats.In terms of vote share, the saffron party may get 36 per cent of votes and Trinamool Congress is expected to bag 48 per cent.Meanwhile, the Left Front is expected to get 6 per cent of votes and Congress about 7 per cent.Compared to 2019 results, the BJP may lose 8 seats while TMC is likely to gain 8 more if predictions match election results when they are held next year.Image Source : INDIA TVIndia TV-CNX opinion poll | West BengalThe BJP is expected to get 49 per cent of votes in Rajasthan while the Congress may secure 41 per cent vote share, according to India TV-CNX opinion poll.The survey further predicts that the saffron party may win 23 lok sabha seats in the state and Congress is likely to get 2.Compared to 2019, the BJP is likely to lose one seat and the grand old party may gain 2 if the prediction matches results when general elections are held in the country.Image Source : INDIA TVIndia TV-CNX opinion poll | Rajasthan According to India TV-CNX opinion poll, the BJP is expected to get 48 per cent vote share in Madhya Pradesh whereas the Congress may get 41 per cent votes.The survey further predicts that the saffron party may win 25 lok sabha seats while Congress may win 4.Comparing to 2019 results, the BJP may lose 3 seats and Congress could gain 3 if these projections match the results whenever elections are held.Image Source : INDIA TVIndia TV-CNX opinion poll | Madhya Pradesh  In Chhattisgarh, the BJP is expected to get 46 per cent of votes and the Congress may secure 43 per cent, according to India TV-CNX opinion poll.In terms of seat projection, then the BJP may win 7 lok sabha seats while Congress is likely to get 4.Comparing it with 2019 results, the BJP may lose 2 seats in Chhattisgarh whereas Congress is likely to gain 2.Image Source : INDIA TVIndia TV-CNX opinion poll | Chhattisgarh India TV-CNX opinion poll predicts that the DMK is expected to get 31 per cent votes in Tamil Nadu while AIADMK may get 25 per cent.The Congress is likely to get 11 per cent votes and BJP may only secure 7 per cent.The survey predicts that the DMK is expected to become the single largest party in Tamil Nadu and may win 21 seats whereas AIADMK may get 6 seats.Image Source : INDIA TVIndia TV-CNX opinion poll | Tamil NaduAccording to India TV-CNX opinion poll, the BJP is expected to get 44 per cent votes in Karnataka while Congress may get 40 per cent, and JDS likely to get 11 per cent.In terms of seats, then the BJP may win 16, Congress likely to get 10 while JDS may win 2.Comparing it with 2019 results, the BJP may lose 9 Lok Sabha seats in Karnataka while Congress may gain 9 if elections are held today.Image Source : INDIA TVIndia TV-CNX opinion poll | Karnataka According to India TV-CNX opinion poll, BJP-led NDA is likely to win 8 seats in other Northeastern states including Manipur, Sikkim, Meghalaya, Mizoram, Tripura, Nagaland and Arunachal Pradesh, whereas the Congress may win 3.In Assam, the BJP is likely to get 42 per cent votes in Assam. In terms of seat projection, then the saffron party is likely to win 12 Lok Sabha seats while Congress may get one.Out of 20 Lok Sabha seats in Kerala, the Congress-led UDF may win 16 while LDF is expected to get 4 seats. Comparing it with 2019 results, then the Congress-led UDF is set to lose 3 Lok Sabha seats whereas LDF is likely to gain 3, according to India TV-CNX opinion poll.According to India TV-CNX opinion poll, the LDF is likely to get 39 per cent votes in Kerala while Congress-led UDF is expected to get 47 per cent vote share. The BJP-led NDA may get 13 per cent of votes but may not be able to win even a single seat.India TV-CNX opinion poll predicts 15 lok sabha seats for YSRCP in Andhra Pradesh, Chandrababu Naidu's TDP to get 10. Both BJP and Congress are expected to score a duck in the state.Comparing it with 2019 elections, then the YSRCP may lose 7 Lok Sabha seats while TDP is likely to gain 7 more in 2024.In 2019, YSRCP won 22 Lok Sabha seats including Araku, Vizianagaram, Visakhapatnam, Anakapalli, Kakinada, Amalapuram, Rajahmundry, Narasapuram, Eluru, Machilipatnam, Narasaraopet, Bapatala, Ongole, Nandyal, Kurnool, Anantapur, Hindupur, Kadapa, Nellore, Tirupati, Rajampet and Chittoor.In Andhra Pradesh, Jagan Mohan Reddy-led YSRCP is likely to get 46 per cent of votes, TDP is expected to get 42 per cent while Congress and BJP may get only 3 per cent and 2 per cent votes.BJP had won four Lok Sabha seats in 2019 including Secunderabad, Adilabad, Nizamabad and Karimnagar.Image Source : INDIA TVIndia TV-CNX Opinion Poll | Andhra Pradesh According to India TV-CNX opinion poll, BRS is likely to get 40 per cent votes in Telangana, BJP is expected to get 28% while Congress may secure third spot with 23 per cent votes.</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/womens-reservation-bill-cleared-in-cabinet-meeting-chaired-by-pm-modi-sources-latest-update-2023-09-18-893457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      IND vs AUS: Rohit Sharma, Virat Kohli rested for first 2 ODIs; R Ashwin returns to India squad after Jan 2022    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Board of Control for Cricket in India (BCCI) announced two squads for India's three-match ODI series against Australia starting Friday, September 22 in Mohali with a press conference addressed by chief selector Ajit Agarkar and skipper Rohit Sharma. Most of the main squad at the Asia Cup and the World Cup is rested for the first two ODIs with KL Rahul leading the side and veteran spinner R Ashwin has returned to the side for the first time since January 2022.Ruturaj Gaikwad is the only new entrant in the squad as he replaces skipper Rohit for the first two games as an opener with Shubman Gill and Ishan Kishan being the other options at the top of the order. Shreyas Iyer, Suryakumar Yadav, Tilak Varma and stand-in captain Rahul will be in the middle order with R Ashwin, Ravindra Jadeja and Washington Sundar forming the spin attack.The whole pace attack is retained with Hardik Pandya and Kuldeep Yadav being the two others players to be rested. The whole World Cup squad will come back for the third ODI with Ashwin and Sundar staying for the Rajkot game. Axar Patel, who suffered a side strain in the Bangladesh game is subject to fitness for the series finale.Advertisement
- </t>
-  </si>
-  <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/ind-vs-aus-team-india-squad-for-three-match-odi-series-australia-rohit-sharma-virat-kohli-axar-patel-washington-sundar-2023-09-18-893407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Rajasthan: 16-year-old NEET aspirant dies after consuming poison in Kota    </t>
-  </si>
-  <si>
-    <t>A 16-year-old NEET aspirant from Uttar Pradesh died on Monday after allegedly consuming poison in her hostel room in the Vigyan Nagar area of this coaching hub, police said. The student was rushed to a hospital, where she died after three hours during treatment, they added.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/news/rajasthan-16-yr-old-neet-aspirant-dies-after-consuming-poison-in-kota-2023-09-18-893456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'Congress welcomes': Jairam Ramesh reacts to reports on Cabinet's nod to Women's Reservation Bill    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Congress on Monday reacted to the reports that the Modi Cabinet approved the Women's Reservation Bill which is likely to be tabled in the new Parliament tomorrow.Congress general secretary Jairam Ramesh said his party welcomes the reported move as the grand old party has been raising the demand for long."It’s been a long-standing demand of the Congress party to implement women’s reservation. We welcome the reported decision of the Union Cabinet and await the details of the Bill. This could have very well been discussed in the all-party meeting before the Special Session, and consensus could have been built instead of operating under a veil of secrecy," he posted on X.On Sunday, he shared a detailed post he made on Sunday to underline how the Congress has been supporting the move.Citing his post on X on September 17, Ramesh gave credit to his party for reports that the Cabinet approved the long-pending bill."The Congress Working Committee has demanded that the Women's Reservation Bill must be passed during the Special Session of Parliament," he said quoting the CWC resolution that was passed at its meeting in Hyderabad this weekend.Advertisement
- Ramesh had on September 17 said former prime minister Rajiv Gandhi first introduced the Constitution Amendment Bills for one-third reservation in panchayats and nagarpalikas in May 1989. It passed in Lok Sabha but failed in Rajya Sabha in September 1989, he noted.He also said then Prime Minister P V Narasimha Rao reintroduced Constitution Amendment Bills for one-third reservation for women in panchayats and nagarpalikas in April 1993. Both Bills passed and became law.
-Advertisement
-"Now there are more than 15 lakh elected women representatives in panchayats and nagarpalikas. This comes to about 40 percent._x000D_
-"As PM, Dr. Manmohan Singh brought Constitution Amendment Bill for one-third reservation for women in Parliament and state legislatures. Bill passed on March 9, 2010 in the Rajya Sabha. But it was not taken up in Lok Sabha," Ramesh claimed.He said Bills introduced/passed in Rajya Sabha do not lapse and the Women's Reservation Bill is still very much active."The Congress party has for the past nine years been demanding that the Women's Reservation Bill already passed by the Rajya Sabha should now get passed by the Lok Sabha as well," he said. </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/congress-welcomes-centres-move-jairam-ramesh-reacted-to-reports-on-cabinet-nod-to-women-reservation-bill-2023-09-18-893471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      After Santiniketan, 'Sacred Ensembles of the Hoysala' inscribed on UNESCO World Heritage List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Santiniketan, Karnataka's Hoysala temples were inscribed on the UNESCO World Heritage List. The development came a day after the home of Nobel laureate Rabindra Nath Tagore, Santiniketan, was inscribed on the UNESCO World Heritage List. The announcement by the world body was made on Monday in a post on 'X', saying that the 'Sacred Ensembles of the Hoysala', the Hoysala temples of Belur, Halebid and Somnathapura in Karnataka, have been inscribed on the UNESCO World Heritage List."Just inscribed on the @UNESCO #WorldHeritage List: Sacred Ensembles of the Hoysalas, #India. Congratulations!, UNESCO posted on X. The decision was taken during the 45th session of the World Heritage Committee currently underway in Riyadh, Saudi Arabia.PM Modi reactsAdvertisement
- "More pride for India! The magnificent Sacred Ensembles of the Hoysalas have been inscribed on the @UNESCO World Heritage List. The timeless beauty and intricate details of the Hoysala temples are a testament to India's rich cultural heritage and the exceptional craftsmanship of our ancestors," Prime Minister Narendra Modi posted on X."Good news keeps coming in. A deserving recognition for our traditional art and architecture," External Affairs Minister S Jaishankar posted on X.
+    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-live-updates-who-will-become-pm-if-lok-sabha-elections-are-held-today-modi-rahul-nitish-mamata-akhilesh-nda-india-bloc-896329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Imran Masood, expelled BSP leader, to rejoin Congress tomorrow, calls decision 'ghar wapsi'    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expelled Bahujan Samaj Party leader and former legislator Imran Masood will rejoin Congress party on Saturday (October 7).Masood was expelled from BSP earlier this year for anti-party activities in August this year. He will join the Congress again in the national capital.Masood, who is an influential Muslim leader from Uttar Pradesh's Saharanpur district had joined the BSP after the 2022 Assembly polls, however, he was expelled this year. Before the 2022 Assembly polls, Masood had defected to Samajwadi Party from Congress.He will be rejoining the Congress party tomorrow.The leader lauded Rahul Gandhi and said that he had a "great working experience" when he was earlier a part of Congress and called his rejoining the party as "ghar wapsi".Advertisement
+ "In the current situation, Congress leader Rahul Gandhi did Bharat Jodo Yatra. An era of transformation started after that...Earlier too, when I was in the party, I had a great working experience. Unfortunately, for 1-1.5 years I was not a part of the party. Now I am doing 'ghar wapsi'..." he said.
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/unesco-world-heritage-list-sacred-ensembles-of-hoysalas-temples-inscribed-santiniketan-latest-updates-2023-09-18-893441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Return after 20 months! What chief selector Ajit Agarkar, Rohit Sharma said about R Ashwin's World Cup chances    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veteran Indian off-spinner Ravichandran Ashwin returned to the ODI side for the first time since January 2022. Ashwin, who hasn't been a regular on the white-ball side somehow gets into the probables before the World Cup. A similar thing happened in the last two T20 World Cups as well and this time Axar Patel's injury has meant that the 37-year-old has gotten in the reckoning once again.Washington Sundar was called up ahead of the Asia Cup final and even played the game while Ashwin is part of the squad for the three-match Australia series starting Friday, September 22 in Mohali. Speaking about Ashwin's return, skipper Rohit Sharma said that the motive behind selecting him for Australia ODIs was just to have a look at him, where he is at as far as his body is concerned if there is an emergency call-up during the World Cup.Speaking at the squad announcement press conference, Rohit said, "With guys like Ashwin, game-time and time on the ground is not so much of a concern. Which is why we thought if he is an option for us, we need to get him in. With the kind of experience he has, for guys like him, it's all in the head more than the body. I thought getting him in could give is a chance to understand where he is at, how his body is and stuff like that.Advertisement
+    <t>https://www.indiatvnews.com/news/india/imran-masood-expelled-bsp-leader-to-rejoin-congress-tomorrow-sources-2023-10-06-896536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      India TV-CNX Opinion Poll: BJP-led NDA likely to lose seats in Maharashtra, Congress to gain    </t>
+  </si>
+  <si>
+    <t>The next year’s Lok Sabha elections in Maharashtra is set to be a neck to neck contest with the predictions of seats swinging from one corner to the other with the nearing general elections. The BJP is still predicted to win most number of seats in the state in 2024, as per the India TV-CNX Opinion Poll conducted on Friday (October 6).In the latest Opinion Poll, the BJP is predicted to win 22 seats while Shiv Sena (Eknath Shinde faction) is shown to win 4 seats. Ajit Pawar’s NCP is slated to bag 2 seats next year. The NDA’s tally, therefore, is likely to touch 28 mark out of the total 48 seats.The Opposition alliance I.N.D.I.A, on the other hand, is predicted to win 20 seats in total, out of which Congress’ share is likely to be 9 seats, while Shiv Sena (UBT) and NCP (Sharad Pawar’s group) are predicted to win 8 and 3 seats respectively.Image Source : INDIA TVIndia TV-CNX Opinion PollIn terms of vote percentage, as per the India TV-CNX Opinion Poll, BJP is expected to get 32% of votes in Maharashtra, alliance partners Shiv Sena of Eknath Shinde and NCP (Ajit Pawar) to get 10% and 5% of votes respectively.The NDA is likely to get 47% of votes in Maharashtra in 2024 Lok Sabha polls., whereas Congress is expected to get 15% of votes in Maharashtra.The Congress’ alliance partners Shiv Sena of Uddhav Thackeray and NCP (Sharad Pawar) are predicted to get 15% and 12% of votes respectively.Image Source : INDIA TVIndia TV-CNX Opinion PollCongress-led alliance is expected to get 42% of votes in Maharashtra.In the previous Opinion Poll conducted by India TV in July this year after Ajit Pawar parted ways with Sharad Pawar, the NDA which comprises of BJP, Shiv Sena (Eknath Shinde faction) and NCP (Ajit Pawar group) was predicted to lose some seats in the 2024 polls, than what it (BJP and undivided Shiv Sena) won in 2019.Advertisement
+ The undivided NDA (BJPand Shiv Sena) had secured 41 seats out of 48 seats in 2019 Lok Sabha polls.In the Opinion Poll in July, the BJP was predicted to win 20 seats next year, suffering a loss of 3, while its ally Shiv Sena led by Eknath Shinde was predicted to win only 2 seats as against its rival faction led by Uddhav Thackeray which was shown to grab 11 seats in 2024.
+Advertisement
+The earlier poll showed that the loyal voters of Shiv Sena were undeterred by the split in the party and were likely to back Uddhav Thackeray.Congress, in the July poll, was predicted to take a significant leap from its 2019 tally and shown to win 9 seats next year.In 2019, the BJP and Shiv Sena had contested the elections together as NDA and secured 41 out of 48 seats, riding on the Modi factor which was prevalent last time. The BJP won 23 while Shiv Sena emerged victorious on 18 seats.The Opposition parties including NCP, Congress, AIMIM, and Independent were crushed as they won only 7 seats together. NCP had bagged 4, and Congress, AIMIM and Independent had won 1 seat each.However, with new alliances formed since the 2019 general elections in Maharashtra, the number game has become closer for the parties.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-goa-maharashtra-prediction-bjp-shiv-sena-ncp-congress-mva-devendra-fadnavis-eknath-shinde-ajit-pawar-sharad-uddhav-thackeray-2023-10-06-896521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Asian Games 2023: Men's hockey team beats Japan to win Gold, secures Paris Olympics ticket    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indian team defeated Japan 5-1 in the hockey men's final at Asian Games 2023 to clinch Gold on Friday, October 6. India's unbeaten run in Asiad continued as they thrashed champions Japan with Manpreet Singh, Harmanpreet Singh, Abhishek and Amit Rohidas scoring goals in the final. With a win, India also confirmed a qualification for the Paris Olympics 2024.India had beat Japan in their Pool A match by 4-2 and repeated a similar impressive all-round performance in the final. Harmanpreet and Manpreet ran the show at Hangzhou's GSP Stadium with the skipper adding two goals. Japan put up a brilliant fight in the first half but India utterly dominated the second half with four goals.Both teams enjoyed a thrilling first quarter but were not able to break the deadlock. Harmanpreet missed a chance to give India a lead in the 14' minute from the penalty corner but his effort was brilliantly blocked by Takumi. Rohidas also missed a chance to score from the penalty corner in the 17' minute as Japan's defence stood firm.Advertisement
+ Manpreet gave India a breakthrough with his 13th goal of the tournament during the 25-minute with a reverse flick past the goalie. India kept their lead till the half-time whistle as Japan failed to bounce back. India turned up better after the break and added four goals to display their dominance in Asiad 2022. Harmanpreet added his first goal from the penalty corner in the 32' minute to stretch India's lead. </t>
+  </si>
+  <si>
+    <t>hockey</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/hockey/asian-games-2023-men-s-hockey-team-beats-japan-to-win-gold-secures-paris-olympics-ticket-2023-10-06-896519</t>
+  </si>
+  <si>
+    <t>Thank You For Coming Review: Bhumi Pednekar's film is all 'very changa si' but late by 25 years</t>
+  </si>
+  <si>
+    <t>The fictional Samantha Jones of Sex and the City once said, “The good ones screw you, the bad ones screw you…and the rest don’t know how to screw you.” That was New York, where discussing sexual pleasure, unabashedly at that, with your girlfriends wasn't frowned upon. But, hello! We are also the land of the Kama Sutra, where women are allegedly born with an ‘instruction manual’ and it took more than a few decades for Bollywood to voice what women want in bed. Karan Boolani’s Thank You For Coming is not the first Hindi film hollering loud about sex and orgasms. But, thankfully, it is more than just sex.
+For the film, Boolani brought Bhumi Pednekar, Shehnaaz Gill, Dolly Singh, Shibani Bedi, and Kusha Kapila together on screen. However, it is said too many cooks spoil the broth, the analogy applies to the film too. Too many fingers and thrusts but just no teeny, weeny orgasm.
+Kanika Kapoor, played by Bhumi Pednekar, has been eagerly waiting for her frog, aka Veer Pratap Singh, all her life. It is her 30th birthday when she turns into Rani from Queen and realises ‘uska toh itna life kharab ho gaya.’ She drops the bomb on her married best friends Pallavi, played by Dolly Singh, and Tina, played by Shibani Bedi, and reveals she never had an orgasm. On her 32nd birthday, Kanika finally gets a bikini wax as she gets a special message from Arjun, played by Karan Kundrra. However, she is disheartened to see Arjun with Rushi, played by Shehnaaz Gill. Kanika agrees to get a ‘tick mark’ in her life by marrying Jeevan, Pradhuman Singh Mal. But, is Jeevan the frog of her life?
+From Arjun to Rahul, played by Sushant Divgikar, to the professor, played by Anil Kapoor, Kanika invites all her exes to her engagement night. She puts her faith in vodka shots and finally gets the orgasm of her life. However, her memory takes a back seat and the story shifts to a conundrum. With the help of her BFFs, she embarks on the journey to find her frog who can be anyone including the rabri wala. In the backdrop, Tina’s teenage daughter Rabeya, played by Saloni Daini, explores her sexual desires and lands in trouble. 
+Written by Radhika Anand and Prashasti Singh, Thank You For Coming tries to tackle things that are twisted in Indian society, making the plot ho-hum. It is messily written with a series of forced fun moments and the performances range from mediocre to exaggerated. Though Bhumi Pednekar is a badass and relatable as Kanika, she fails to hit the spot. Dolly Singh, Shibani Bedi, and Shehnaaz Gill are their natural selves while Kusha Kapila’s less screentime is something I wasn’t rooting for given her presence during promotions. The beauty of the film lies in its small details like the ‘My Neck, My Back, My Anxiety Attack’ tee Bhumi wore in one of the scenes, the quintessential Punjabi Delhi wedding with a hint of peppy songs, and the 66-year-young Anil Kapoor, which pulls one out the boredom around finding the frog.
+Thank You For Coming tries to school society which sees women as the flagbearer of ‘sanskaar’. From objecting to sex or pregnancy before marriage to holding women responsible for atrocities against them, Karan Boolani’s film is like an avocado, which has an appealing texture but no taste. 
+Because how boring and blase it is, to compare women with men!
+The fictional Samantha Jones of Sex and the City once said, “The good ones screw you, the bad ones screw you…and the rest don’t know how to screw you.” That was New York, where discussing sexual pleasure, unabashedly at that, with your girlfriends wasn't frowned upon. But, hello! We are also the land of the Kama Sutra, where women are allegedly born with an ‘instruction manual’ and it took more than a few decades for Bollywood to voice what women want in bed. Karan Boolani’s Thank You For Coming is not the first Hindi film hollering loud about sex and orgasms. But, thankfully, it is more than just sex.For the film, Boolani brought Bhumi Pednekar, Shehnaaz Gill, Dolly Singh, Shibani Bedi, and Kusha Kapila together on screen. However, it is said too many cooks spoil the broth, the analogy applies to the film too. Too many fingers and thrusts but just no teeny, weeny orgasm.Kanika Kapoor, played by Bhumi Pednekar, has been eagerly waiting for her frog, aka Veer Pratap Singh, all her life. It is her 30th birthday when she turns into Rani from Queen and realises ‘uska toh itna life kharab ho gaya.’ She drops the bomb on her married best friends Pallavi, played by Dolly Singh, and Tina, played by Shibani Bedi, and reveals she never had an orgasm. On her 32nd birthday, Kanika finally gets a bikini wax as she gets a special message from Arjun, played by Karan Kundrra. However, she is disheartened to see Arjun with Rushi, played by Shehnaaz Gill. Kanika agrees to get a ‘tick mark’ in her life by marrying Jeevan, Pradhuman Singh Mal. But, is Jeevan the frog of her life?</t>
+  </si>
+  <si>
+    <t>movie-review</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/movie-review/thank-you-for-coming-review-bhumi-pednekar-film-is-all-very-changa-si-but-late-by-25-years-814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      OPINION | ED &amp; CBI: Fevicol for opposition unity    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aam Aadmi Party supremo Arvind Kejriwal got three bad news on Thursday. One, his close associate Sanjay Singh was sent to five-day custody of the Enforcement Directorate by a Delhi court, Two, the Aam Aadmi Party may be made an accused by ED in the Delhi liquor excise case, and Three, former Deputy CM Manish Sisodia, who has been in jail for last seven months, failed to get bail from Supreme Court. Despite Kejriwal’s claim that not a single rupee has been seized from the residences of any of his leaders, ED in its remand application before the court disclosed that accused businessman Dinesh Arora had given Rs two crore cash at the residence of Sanjay Singh in two tranches. Singh strongly rejected this allegation in court. ED’s remand application says, the cash was paid between August 2021 and April, 2022. ED has summoned two assistants of Sanjay Singh, Sarvesh Mishra and Vivek Tyagi in this connection. In the remand application, ED has said that Sanjay Singh received “proceeds of crime” to the tune of Rs 2 crore. It now appears that AAP wants to fight this corruption case on a political pitch, and in pursuance of this strategy, its workers staged protests on Thursday in Delhi, Chandigarh, Mumbai and Pune. On the other hand, constituent parties of the I.N.D.I.A opposition bloc has come forward to extend support to him. Congress leader Priyanka Gandhi Vadra, while addressing a rally in MP, alleged that ED is conducting raids and carrying out arrests only in non-BJP-ruled states. She alleged that ED never conducted raids in BJP-ruled Madhya Pradesh, where several scams have taken place. On Friday, Nationalist Congress Party chief Sharad Pawar met Congress president Mallikarjun Kharge and Congress leader Rahul Gandhi in Delhi to chalk out I.N.D.I.A opposition bloc’s next strategy. A day before, on Thursday, Pawar criticized Sanjay Singh’s arrest and accused the BJP of misusing agencies like CBI and ED to target the opposition. Pawar said, “I feel that when they can’t find anything against the opposition, they resort to misusing agencies like ED and CBI.” Pawar described Sanjay Singh as a “nice person” and condemned his arrest. He also mentioned how raids were carried out against Mamata Banerjee’s associates in West Bengal. He also mentioned how NCP leader and former Maharashtra Home Minister Anil Deshmukh was arrested and kept in jail for 13 months. He also mentioned how Shiv Sena (UBT) leader Sanjay Raut was arrested and kept in jail for eight months.  I find one of the observations made by Sharad Pawar interesting. He said opposition unity will now become stronger after raids by ED and CBI. “ED’s actions will act as Fevicol”, he said.  I had said this in my show ‘Aaj Ki Baat’ on Wednesday night. Pawar understands that parties which are part of I.N.D.I.A alliance may be having differences at local levels, but a middle path has to be found out. He feels this is the need of the hour. Pawar has said, while Left and Congress are against Mamata Banerjee and her party, Congress and AAP are at loggerheads in Delhi and Punjab. These quarrels, he thinks, should be kept confined to those states only, and there must be coordinated efforts so that all major opposition parties can at least contest next year’s Lok Sabha elections unitedly by fielding common candidates to defeat BJP. Sharad Pawar is an experienced and clever politician. He chooses his words carefully. When he said that forces like ED and CBI are acting as Fevicol to keep the INDIA alliance intact, he is conveying the message that the more the cases are filed, the stronger will be the bloc. Kejriwal is so much worried about CBI, and ED cases against his party leaders that he may now be ready to leave three out of seven Lok Sabha seats in Delhi for his rival party Congress. Overall, Congress, NCP, Aam Aadmi Party, Trinamool Congress, and RJD are parties, in which top leaders are facing corruption cases from CBI and ED. Some leaders are out on bail, while some others are in jail. Till now, leaders of these opposition parties have been admitting in private that they have joined hands on a common platform because of the cases that they are facing. Pawar has now publicly admitted this,  and it is now for Prime Minister Narendra Modi to pick it up. Modi has been saying consistently that the opposition bloc is actually an alliance of leaders neck-deep in corruption. Modi has been saying that it was his government which relentlessly carried out action against corruption, and this was the reason why opposition leaders have come together. Modi feels he can now go to the people with corruption as the main plank. This will help him to corral all the opposition parties on a single pitch. Modi’s speeches at his recent rallies are fairly indicative of this strategy.Aaj Ki Baat: Monday to Friday, 9:00 pmAdvertisement
  </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/sports/cricket/return-after-20-months-what-chief-selector-ajit-agarkar-rohit-sharma-said-about-r-ashwin-s-world-cup-chances-2023-09-18-893476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Women's Reservation Bill: Why is this quota needed? Know about benefits and challenges | EXPLAINED    </t>
-  </si>
-  <si>
-    <t>The Women's Reservation Bill is once again in the news amid a special session of Parliament. Some regional parties and Congress MPs pressed the demand for the passage of the bill in Parliament during an all-party meeting held on Sunday. They demand the bill to be passed in the new Parliament building during the special session. However, the government made no official reaction to their demand.What is the Women's Reservation Bill?_x000D_
-The bill seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies. Women MPs account for less than 15 per cent of Lok Sabha strength while their representation is below 10 per cent in many state assemblies, data shows amid a renewed push for the women reservation bill pending for nearly 27 years. The bill was initially introduced in the parliament on September 12, 1996.Who all are in support?_x000D_
-Virtually or in spirit, all parties are in support of the bill yet no concrete action has been taken in the last 13 years to materialise the proposal. Congress leader Adhir Ranjan Chowdhury after the meeting  said, "All opposition parties demanded the passage of women's reservation bill in this Parliament session."  BJP ally and NCP leader Praful Patel said, "We appeal to the government to pass the women's reservation bill in this Parliament session." Several regional parties including the BJD and the BRS also pushed for tabling of the bill. BJD MP Pinaki Misra said a new era should begin from the new Parliament building and the women's reservation bill should be passed.BRS leader Kavitha has been a prominent voice in renewing the demand for the passage of the bill in the parliament. In fact, she sat on a hunger strike and held agitation with leaders from other political parties and civil society organisations across India in March 2023. Current status of the bill_x000D_
-The last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move to reserve 33 per cent seats for women in Lok Sabha and state assemblies, but the bill lapsed as it could not be passed by Lok Sabha.The biggest barrier - quota within quota_x000D_
-Some regional parties demand quota for backward classes and Scheduled Castes within the overall reservation for women. This has been a key sticking point in the passage of the bill earlier. According to a write-up available on PRS Legislative, it also proposed quota-within-quota for SCs, STs and Anglo-Indians, while reserved seats were to be rotated after each general election. It meant that after a cycle of three elections, all constituencies would have been reserved once. The reservation was to be operational for 15 years.Earlier, Lalu Prasad Yadav-led RJD, Nitish Kumar's JD-U and Mulayam Singh Yadav's Samajwadi Party (SP) opposed the draft of the bill as they demanded quota within quota for the backward class when the bill was tabled back in 2008 and 2010. However now, the stand of these regional parties has been softened over the years and now leaders of these parties become frontiers who are advocating the quota for women. Recommendations for the billTwo of the recommendations - the first was for reserving seats in Rajya Sabha and Legislative Councils and the second was for sub-reservation for OBC women after the Constitution extends reservation to OBCs were not incorporated in the 2008 Bill.  The 2008 Bill was referred to the Standing Committee on Law and Justice, but it failed to reach a consensus in its final report. The Committee recommended that the Bill “be passed in Parliament and put in action without further delay".Advertisement
- Two members of the Committee, Virender Bhatia and Shailendra Kumar (both belonging to the Samajwadi Party) dissented stating that they were not against providing reservation to women but disagreed with the way this Bill was drafted. They had recommended that every political party must distribute 20 per cent of its tickets to women, the reservation should not exceed 20 per cent of seats and there should be a quota for women belonging to OBCs and minorities. The standing committee also considered other methods of increasing representation. One suggestion was to ask political parties to nominate women for a minimum percentage of seats, but the committee felt that parties could bypass the spirit of the law by nominating women to seats where there were prospects of loss. Another recommendation was to create dual-member constituencies, with women filling one of the two seats from those constituencies.Why the bill is needed?
+    <t>https://www.indiatvnews.com/news/india/ed-and-cbi-fevicol-for-opposition-unity-aam-aadmi-party-sanjay-singh-arrest-rajat-sharma-blogpost-opinion-2023-10-06-896533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Singapore experiencing another COVID-19 wave as daily cases reach 2,000: Health Minister    </t>
+  </si>
+  <si>
+    <t>Singaporean Health Minister Ong Ye Kung on Friday said that the country is experiencing another COVID-19 wave, as infections have risen from 1,000 three weeks ago to around 2,000 in the past two weeks.In an interview, Ong said that the recent COVID-19 cases in Singapore are being driven by the two variants - the EG.5 and its sub-lineage HK.3 - both descending from the Omicron variant of the virus. They are accounting for 75% of the daily cases in the country, he said."We will treat this as an endemic disease, which is in line with our strategy, and we will live with it... After all, there has been no evidence to suggest that the new variants are more likely to lead to severe illnesses compared to previous variants," he said.Although Ong said that there are no plans as of now to impose any social restrictions as Singapore did from March to April, he did warn against lowering its guard and complacency against COVID-19. "In the coming weeks, we should expect more people to fall sick, and if so, hospitalisations will go up. Waiting time will go up," said the Singaporean Health Minister.The findings of a study by the Ministry of Health (MOH) revealed the incidence rate of severe illness recorded during the peak of Singapore’s last infection wave in April. The "best protected" groups are those who have a minimum of three mRNA shits and a natural infection within the last 12 months.Advertisement
+ The severe illness incidence rate in the "best protected" group is 10 per 100,000 people. On the other hand, the "least protected" groups include those who have no minimum protection and no recorded infection - thus, they are five times more vulnerable to the virus. The incidence rate here is 50 per 100,o00 people.Ong warned that protection against the virus might wane, which typically happens around the 12-month interval. He advised senior citizens or those who are medically vulnerable due to underlying illness to take the necessary precautions, such as wearing a mask in crowded areas.
 Advertisement
-The representation of half of the population in the parliament and state assembly is not up to the mark. In the present Lok Sabha, 78 women members were elected which account for less than 15 per cent of the total strength of 543.In Rajya Sabha too, women's representation is about 14 per cent, according to the data shared by the government with Parliament last December.Several state assemblies have less than 10 per cent women representation, including Andhra Pradesh, Arunachal Pradesh, Assam, Goa, Gujarat, Himachal Pradesh, Karnataka, Kerala, Madhya Pradesh, Maharashtra, Manipur, Meghalaya, Odisha, Sikkim, Tamil Nadu, Telangana, Tripura and Puducherry.Bihar, Haryana, Punjab, Rajasthan, Uttrakhand, Uttar Pradesh and Delhi had 10-12 per cent women MLAs, according to the government data of December 2022. Chattisgarh, West Bengal and Jharkhand led the charts with 14.44 per cent, 13.7 per cent and 12.35 per cent women MLAs, respectively.Last discussion on the bill in Parliament_x000D_
-While it remains to be seen what percentage of reservation can be proposed in a new bill, the 2008 Bill, which was passed in Rajya Sabha in 2010 before it lapsed following the dissolution of Lok Sabha, proposed reserving one-third of all seats in Lok Sabha and legislative assemblies in each state for women. The UPA was in power when the last attempt was made to pass the bill.</t>
-  </si>
-  <si>
-    <t>womens-reservation-bill-why-is-the-quota-needed-barriers-and-vision-explained-parliament-special-session-2023-09-18-893398</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/explainers/womens-reservation-bill-why-is-the-quota-needed-barriers-and-vision-explained-parliament-special-session-2023-09-18-893398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      GST, Article 370 and OROP: PM Modi remembers key decisions during Parliament Special Session    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parliament Special Session: Prime Minister Narendra Modi on Monday remembered the historic decisions like the abrogation of Article 370 in Jammu and Kashmir, Goods and Services Tax (GST) and One Rank One Pension (OROP) taken by the Parliament, in the old building, while reflecting on the history and significance that the House holds. PM Modi was addressing the Lok Sabha on Monday on the first day of the five-day Special Session of Parliament. He said that with the mantra of 'Sabka Saath, Sabka Vikas', several historic decisions on issues pending for decades, their permanent resolution has been found in this Parliament. "Several historic decisions and solutions to issues pending for several decades were made in this House. The House will always say proudly that (abrogation of) Article 370 became possible due to it. GST was also passed here. One Rank One Pension was witnessed by this House. 10 per cent reservation for the Economically Weaker Section was successfully allowed in the country for the first time without any dispute," said the Prime Minister.PM Modi further said that this House also witnessed a 'cash-for-votes' scam during the tenure of Prime Minister Manmohan Singh.Article 370: On August 5, 2019, the Centre abrogated Article 370 granting special status to Jammu and Kashmir and bifurcated the erstwhile state into two Union Territories – Jammu and Kashmir and Ladakh.Advertisement
- GST: In a special midnight session of Parliament on June 30, 2017, President Pranab Mukherjee and Prime Minister Narendra Modi launched India’s biggest tax reform from the historic central hall of Parliament. With the stroke of the gong, tax rates were replaced by GST rates.One Rank One Pension: The government took a historic decision to implement OROP for the Defence Forces Personnel and family pensioners in 2015. The OROP "implies that uniform pension be paid to the Armed Forces Personnel retiring in the same rank with the same length of service irrespective of their date of retirement and any future enhancement in the rates of pension to be automatically passed on to the past pensioners."
+"As I have said before, the COVID-19 virus has not become milder since the pandemic crisis. It is us who have gotten stronger and more resilient, and that is because of vaccinations as well as safe recovery from infections. But like all protection, it will wane over time," the Minister added.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/singapore-is-experiencing-another-covid-19-wave-as-daily-cases-rise-says-health-minister-precautions-latest-updates-2023-10-06-896531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Delhi's air quality index turns 'poor' ahead of festivities     </t>
+  </si>
+  <si>
+    <t>Delhi air quality: With the air quality index (AQI) in Delhi dropping to the 'poor' level today (October 6), authorities in the National Capital Region (NCR) have been asked to strictly implement measures under Stage 1 of the Graded Response Action Plan (GRAP) which include a complete ban on the use of coal in roadside eateries, hotels and restaurants. At a meeting on Friday, the Centre's sub-committee on GRAP noted that there has been a sudden dip in air quality parameters in the region in the last 24 hours which pushed Delhi's AQI to 212 (poor category). "It is considered necessary to invoke Stage-I of GRAP with immediate effect in the entire NCR in an effort to take steps to prevent further deterioration of air quality in the region," the Commission on Air Quality Management said in a statement.GRAP- a set of anti-air pollution measures followed in the Delhi-NCR region in the winter season- classifies actions under four different categories- Under the stage 1, authorities are also required to take penal and legal action against polluting industrial units.Delhi govt planning to deploy anti-smog guns:The Delhi government is planning to deploy 200 anti-smog guns this year as part of its anti-dust campaign which kicks off on October 9, officials said. The Public Works Department (PWD) has already started hiring anti-smog guns across various sub-divisions.Advertisement
+ "There are around 19 sub-divisions under the PWD. They have floated tenders for procuring anti-smog guns as per their requirement. This year, we plan to deploy 200 anti-smog guns to address the problem of dust pollution. Last year, PWD had deployed 150 anti-smog guns," an official said.The process has already been completed in some sub-divisions, the official added.
 Advertisement
-Triple Talaq: The Triple Talaq Bill was passed in Lok Sabha on July 25, 2019. The Muslim Women (Protection of Rights on Marriage) Bill, 2019 was passed with the most number of voice votes in favour of the legislation. The Government led by Prime Minister Narendra Modi made the law against Triple Talaq to make effective the Supreme Court’s judgement. The Supreme Court, on May 18, 2017, had declared Triple Talaq as unconstitutional. </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/parliament-special-session-pm-modi-speech-remembers-key-decisions-gst-article-370-orop-latest-updates-2023-09-18-893338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      What will happen to old parliament building now | EXPLAINED    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The stage is set for the beginning of the proceeding of the parliamentary session in the new building of the Parliament in New Delhi. The Rajya Sabha and the Lok Sabha were adjourned in the old building concluding the last session in the old building today and MPs will meet again on Tuesday afternoon in the new Parliament building.While the Rajya Sabha will meet at 2:15 pm in the Upper House chamber of the new Parliament building on Tuesday, the Lok Sabha will meet at 1:15 pm in the Lower House chamber of the newly-constructed complex.On Monday, the members of both Houses held a discussion on "Parliamentary Journey of 75 years starting from Samvidhan Sabha -- Achievements, Experiences, Memories and Learnings".Speaking before adjourning the day's proceedings in the Lok Sabha, Birla said a "constructive discussion" took place on the last day of the proceedings in this historic and prestigious chamber. Prime Minister Narendra Modi and other MPs also recalled historical moments of the old building. _x000D_
-Now, the question arises about the future of the old parliament building.Advertisement
- Housing and Urban Affairs Minister Hardeep Singh Puri told the Rajya Sabha in March 2021, that the existing one (parliament) will have to be repaired and made available for 'alternate use'. However, he made no clarity on what could be the alternate use.Media reports suggest that the old parliament building is likely to be conserved as a historical democratic monument and a part of the building might be converted into a museum. 
+"The smog guns shall normally be deployed from 9:00 am to 6:00 pm on all working days. They will be mounted on a CNG Truck BS-VI and the capacity of water tanker should not be less than 7000 litres. The vehicle should be equipped with front and back cameras and GPS system. It should be able to spray water up to a height of 50 metres," the official said.The official said the contractor has to supply the anti-smog guns on a regular basis.</t>
+  </si>
+  <si>
+    <t>delhi-air-quality-index-poor-aqi-high-pollution-level-pollutants-grap-categories-ncr-pollution-latest-updates-2023-10-06-896527</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-air-quality-index-poor-aqi-high-pollution-level-pollutants-grap-categories-ncr-pollution-latest-updates-2023-10-06-896527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Asian Games: Is China advertently trying to rob India of medals in Hangzhou? | Explained    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 19th edition of the Asian Games has transpired into a historic occasion for India in terms of medal output as the country has already scripted its all-time best performance in the history of the continental event.The Indian contingent participating in the 19th edition has produced a record-shattering effort to propel the country's medal tally to over 90 (and counting). However, this monumental journey has been an arduous one for the Indian athletes but certainly not in the way they would have imagined.From the Tokyo Olympic gold medallist and world champion javelin thrower Neeraj Chopra to India's emerging track and field athlete Jyothi Yarraji, several athletes have fallen prey to umpiring gaffes. While one or a couple of horrid judgements can be overlooked, a recurrent chain has brought the rectitude of the officials into question. These recurring events have also given rise to several voices, including some prominent ones alleging the intentional targeting of the Indian athletes by China - the host of the mega event. The incident that arguably gave rise to all these allegations was the disqualification of India's track and field athlete Jyothi Yarraji during her 100m hurdles final. During the event, China's Yanni Wu running in the adjacent lane to Jyothi got off to a false start and was staring at disqualification but appalingly the umpires officiating the event disqualified the Indian.Livid with the ruling, Jyothi held her nerve and protested which forced the officials to realise their blunder and they reinstated her. Jyothi finished in third place behind Wu but her bronze was eventually upgraded to silver. Wu took to the Chinese social media platform Weibo and apologised to Jyothi after the whole incident.While the incident involving Jyothi, was enough to garner numerous eyeballs, what followed afterwards put the cat among the pigeons and added more substance to all the widespread talks of China impeding India's way to glory. Olympic gold medallist and arguably India's strongest medal contender in an individual event in Hangzhou, Neeraj Chopra was also left flabbergasted when his first-ever throw in the men's javelin event which looked within touching distance of 87m was not measured.Advertisement
+ Neeraj was left scratching his head after he learnt from the ones officiating that it wasn't recorded. The world champion chose to register a protest and was subsequently offered another opportunity to rethrow.Neeraj's compatriot and eventual silver medallist at the event, Kishore Jena had to suffer as well after his second attempt was declared a foul. Self-assured of his throw's legality, Kishore protested too and was joined by Neeraj. It soon bore fruit and led to a change in the judgement and the decision was reversed.
+Advertisement
+In the end, Neeraj bagged gold and Kishore claimed silver to finish the event on a high despite the obstacles that came their way.The list isn't limited to these three incidents. It also involves javelin thrower Annu Rani, Manju Rani (race walk) and Murali Sreeshankar (long jump). All these athletes encountered major hiccups during their respective events but still went on to claim medals for the country. While Annu clinched gold in the women's javelin throw event, Manju Rani claimed bronze alongside Ram Baboo in the 35km race walk mixed team event and Murali won silver in the men's long jump category. </t>
+  </si>
+  <si>
+    <t>asian-games-is-china-advertently-trying-to-rob-india-of-medals-in-hangzhou-explained-2023-10-06-896522</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/explainers/asian-games-is-china-advertently-trying-to-rob-india-of-medals-in-hangzhou-explained-2023-10-06-896522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Mastering Flipkart Big billion Day Sale 2023 &amp; Amazon sale: 'Your Ultimate Guide to Smart Shopping Strategies'    </t>
+  </si>
+  <si>
+    <t>In India, festivities go hand in hand with shopping, and what better way to celebrate than by indulging in the grand sales of Flipkart's Big Billion Day and Amazon's Great Indian Sale? These sales have become a national tradition, offering unbeatable discounts on a wide range of products, just in time for major festivals like Diwali and Durga Puja. However, with so many products and deals to choose from, it's easy to feel overwhelmed. Enter the Buyhatke Chrome Extension - a game-changer that ensures you make the most out of these sales, not just by comparing prices but also by unlocking exclusive discounts and tracking price fluctuations._x000D_
+It's like having your very own personal shopping assistant who scouts the internet to find the best deals for you.One of the key advantages of this extension is its ability to save you both time and money. You no longer need to open multiple tabs to compare prices manually; Buyhatke does it for you instantly. With a few clicks, you can see which platform offers the lowest price for your desired product, making it easier to snag the best deal during these mega sales events.Unlocking Exclusive Discounts- One of the Star features What truly sets the Buyhatke Chrome Extension apart is its ability to generate auto coupons that can lead to additional savings. While Flipkart and Amazon offer competitive prices during their flagship sales, they rarely provide exclusive coupons for their products. This is where Buyhatke shines. By using this extension, you can uncover hidden discounts that aren't readily available on the e-commerce giants' websites.Imagine purchasing your favorite electronics, fashion, or home appliances at an even lower price than advertised. Buyhatke scans the web for coupon codes and applies them automatically at checkout, ensuring you get the best possible deal. This feature is especially valuable during Big Billion Day and the Great Indian Sale when every rupee counts.Advertisement
+ Tracking Price Fluctuations_x000D_
+Price fluctuations are common during major sales events, and sometimes it's challenging to determine whether you're getting a true bargain or not. This is where Buyhake proves invaluable once again. The extension not only helps you compare current prices but also provides historical data, including the all-time high and all-time low prices of a product.</t>
+  </si>
+  <si>
+    <t>pr-release</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/brand-content/pr-release/mastering-flipkart-big-billion-day-sale-2023-and-amazon-sale-your-ultimate-guide-to-smart-shopping-strategies-2023-10-06-896514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      World Cerebral Palsy Day 2023: Seven myths and facts related to the congenital disorder     </t>
+  </si>
+  <si>
+    <t>Despite being a prevalent childhood congenital disorder worldwide, cerebral palsy (CP) is frequently misunderstood, leading to numerous misconceptions and misinformation. Consequently, families grappling with a CP diagnosis often face unnecessary stress due to these falsehoods. In the below article, Dr Chhya Vaja, Internal Medicine Expert, at Apollo Spectra Mumbai, has busted some myths surrounding cerebral palsy.Cerebral palsy (CP)  is a prevalent physical disability in childhood, encompassing a range of disorders that hinder movement and posture. Typically, it arises from brain damage occurring in utero or shortly after delivery. Cerebral pertains to the brain, while palsy signifies impaired muscle control. Children and adults experience this complex condition differently, with varying degrees of severity. Despite being a permanent condition, it does not worsen over time, and individuals with CP can lead normal and healthy lives through effective management. However, there is still a lack of awareness regarding this condition. Apart from this, there are also certain myths associated with this condition.Myth #1: Those with cerebral palsy are intellectually disabled.Fact: Cerebral palsy primarily impacts movement and posture, and only a few with the condition have an intellectual disability. The severity of intellectual disability can vary from mild to severe.Myth #2: People with cerebral palsy are unable to communicate verbally.Fact: Only some people with cerebral palsy are unable to speak. However, this does not mean they cannot communicate effectively. Through methods such as arranging pictures in books or utilizing eye-gaze control technology, people living with cerebral palsy can convey their needs and desires.Myth #3: Those with cerebral palsy have shorter lifespans.Fact: Most people with cerebral palsy are healthy and can expect to live as long as the average person in the general population.Advertisement
+ Myth #4: Children with cerebral palsy have a poor quality of life.Fact: The majority of children with cerebral palsy are healthy and lead fulfilling lives.
+Advertisement
+Myth #5: People with cerebral palsy cannot have children.Fact: There is no evidence confirming that cerebral palsy affects fertility. Additionally, since it is not considered hereditary, the likelihood of a woman with cerebral palsy having a child also affected by the condition is no different from that of any other individual.Myth #6: Cerebral palsy worsens over time.Fact: It is a common misconception that cerebral palsy deteriorates as one ages. However, the truth is that while the condition itself remains permanent, its severity does not escalate with time. Nonetheless, similar to anyone growing older, those with cerebral palsy may experience age-related symptoms like heightened muscle rigidity and other typical issues associated with ageing.</t>
+  </si>
+  <si>
+    <t>world-cerebral-palsy-day-2023-seven-myths-and-facts-related-to-the-congenital-disorder-2023-10-06-896544</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/health/world-cerebral-palsy-day-2023-seven-myths-and-facts-related-to-the-congenital-disorder-2023-10-06-896544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      NMC reverses decision on 40 percent passing marks for MBBS subjects with two papers    </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/education/news/nmc-reverses-decision-on-40-percent-passing-marks-for-mbbs-subjects-with-two-papers-2023-10-06-896543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'Cool to have Indian roots' - Rising Kiwi star Rachin Ravindra shares his feelings about Indian origin     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachin Ravindra revealed his proud connection with Indian roots after his sensational hundred against England in the ICC World Cup 2023 opener on Thursday, October 5. New Zealand beat champions England at Ahmedabad's Narendra Modi and Rachin Ravindra bagged Player of the Match award for his 123* off 82 balls knock. The 23-year-old batting all-rounder batted in the no.3 position in the absence of captain Kane Williamson and smashed his maiden ODI hundred in his very first World Cup game. His parents were born in India and his grandparents live in Bengaluru. Rachin is named after two Indian greats Sachin Tendulkar and Rahul Dravid and hailed both cricketers after his special knock in Ahmedabad.Rachin revealed the influence Sachin and Rahul have on his parents and added that he idolises the former. Advertisement
+ </t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/cool-to-have-indian-roots-rising-kiwi-star-rachin-ravindra-shares-his-feelings-about-indian-origin-2023-10-06-896535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Another Philippines-China tussle! Manila protests after Chinese ship nearly collides with Filipino vessel    </t>
+  </si>
+  <si>
+    <t>Tensions between the Philippines and China flared up again at the disputed South China Sea after a Chinese coast guard ship almost collided with a Filipino patrol vessel as the former was trying to block it, intensifying fears of a larger crisis over territorial disputes in the waters.Philippines Coast Guard (PCG) spokesperson Jay Tarriela condemned the Chinese ship's dangerous maneuver near the Second Thomas Shoal - claimed both by China and the Philippines - saying that the Chinese vessel came within a metre of the Philippine vessel."A total of five (5) Chinese Maritime Militia (CMM) vessels once again actively assisted the CCG (Chinese Coast Guard) in blocking our PCG vessels...A total of 4 CCG vessels were dispatched to obstruct the resupply mission, and they were actively assisted by 5 CMM vessels," he said, again accusing China of violating international law.One PCG vessel was blocked and surrounded by Chinese coast guard and militia ships in the incident that dragged on for around eight hours on Wednesday. Two smaller supply boats managed to breach the Chinese blockade and delivered food and other supplies to a Filipino marine outpost at the shoal.The Philippine vessel BRP SINDANGAN, which had to rapidly reverse its engine to avoid slamming into the Chinese ship, was “the closest dangerous maneuver” by any CCG ship, said Tarriela. The incident was witnessed by several journalists.On Wednesday, several CCG and militia ships, including at least one navy warship, later emerged and formed a blockade in the high seas off the shoal. A Chinese radio operator asserted to the Philippines vessels that Beijing has "indisputable sovereignty" over the Second Thomas Shoal and outlying waters. "To avoid miscalculations, leave and keep out," the operator said.In response, the PCG asserted Philippine rights to the area and said they would proceed with the delivery of the supplies. "China firmly opposes the Philippines illegally transporting building materials to the grounded' military boat. It said it gave a stern warning to the Philippine vessels and monitored them throughout the process," said the CCG in a statement on Wednesday.This marks yet another flare-up in long-simmering territorial disputes between the Philippines and China in the South China Sea, one of the world's busiest trade routes. China has reportedly surrounded the Second Thomas Shoal with coast guard ships and militia vessels to prevent the Philippines from delivering materials or supplies to reinforce the long-marooned BRP Sierra Madre there.Last week, a 300 m-long floating barrier installed by China was removed at his command near the Bajo de Masinloc (BDM) shoal, also called the Scarborough Shoal. The Philippines strongly protested against this action and removed it the next day. The PCG said that Chinese vessels usually install floating barriers whenever they monitor a large number of Filipino fishermen in the area.Last week, a Philippine BFAR ship and at least 54 Filipino fishing boats were ordered by four Chinese ships by radio to leave the territory, alleging that they were breaching Chinese and international law. The Philippines said that it was a routine patrol.Advertisement
+ Philippines' claim over the 200-mile Scarborough Shoal lies was upheld by an arbitration decision in 2016 under the 1982 UN Convention on the Law of the Sea. However, China refused to recognise the 2016 arbitration ruling amid tense standoffs in the region.Chinese coast guard ships have also blocked Filipino government vessels delivering supplies and personnel to the Philippine-occupied Second Thomas Shoal, resulting in near-collisions that the Philippine government has condemned and protested.
+Advertisement
+In August, the Chinese Coast Guard allegedly used a water cannon to block a Filipino supply boat from delivering a new batch of troops, food, water and fuel to the Second Thomas Shoal in the disputed waters.China's aggression in the South China Sea has put it in conflict with many Asian countries. A major clash can also involve the United States, which has vowed to defend the Philippines if any Filipino forces, ships and aircraft are attacked.In response to the US warning in August, the Chinese Foreign Ministry accused Washington of “threatening China” by raising the possibility of activating the US-Philippine mutual defence treaty. Beijing has repeatedly warned the US not to meddle in regional territorial disputes.China claims ownership over virtually the entire strategic waterway despite international rulings that invalidated Beijing's vast territorial claims, such as that in 2016 by the Permanent Court of Arbitration, an international body based in The Hague. China rejected that ruling.China's unsubstantiated claims have put it at odds with the Philippines, Vietnam, Malaysia, Brunei and Taiwan and the situation has been regarded as an Asian flashpoint. Meanwhile, Philippines President Ferdinand Marcos Jr vowed to defend the country's waters against Chinese aggression last Friday. "We're not looking for trouble but what we'll do is to continue defending the maritime territory of the Philippines and the rights of our fishermen, who have been fishing in those areas for hundreds of years," he said.The Philippines' repeated confrontations with Beijing over the disputed South China Sea have also been compounded by Marcos' decision to allow the expansion of US military presence under a defence pact in 2014, infuriating Chinese authorities.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/philippines-china-tussle-manila-protests-after-chinese-ship-nearly-collides-with-its-vessel-south-china-sea-dispute-latest-updates-2023-10-06-896541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      BJP to decimate Hemant Soren-Congress alliance in Jharkhand: India TV-CNX Opinion Poll    </t>
+  </si>
+  <si>
+    <t>The BJP is likely to repeat its 2019 show in the next year’s general elections in Jharkhand as the saffron party, according to India TV-CNX Opinion Poll on Friday (October 6), is predicted to win 12 Lok Sabha seats while its ally AJSU is expected to win one seat.Chief Minister Hemant Soren-led Jharkhand Mukti Morcha is likely to win just one seat next year, therefore, suffering a huge decimation by the BJP.As far as the vote percentage is concerned, as per the India TV-CNX Opinion Poll, BJP is expected to get 53% of votes in Jharkhand, Congress is likely to get 17% of votes.India TV-CNX Opinion Poll: Hemant Soren-led Jharkhand Mukti Morcha (JMM) is predicted to get just 13% of votes in Jharkhand.Advertisement
+ In the 2019 Lok Sabha polls, the NDA alliance had won 12 seats, out of which the BJP had registered victory on 11 seats. BJP’s ally AJSU had won one seat last time also.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-bjp-ajsu-jmm-congress-nda-hemant-soren-jharkhand-opinion-poll-prediction-2024-lok-sabha-polls-latest-updates-2023-10-06-896539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Naomi Campbell's 40-year career wardrobe to be exhibited at London's famous V &amp; A museum    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Official! Naomi Campbell’s 40-year fashion career is going to be celebrated in a special exhibition at the Victoria and Albert Museum in London. The exhibition, which will open on June 22, 2024, and will run until April 6, 2023, will be an ode to the iconic supermodel’s illustrious career, which has seen her walk countless runways, grace magazine covers and collaborate with some of the biggest names in fashion.The exhibition will look back at Campbell’s four decades of fashion success, from her early beginnings as a teenage model in London to her current status as one of the world’s most recognizable faces. It will feature a range of items from her personal archive, including iconic magazine covers, looks from some of her most memorable runway shows, and over 100 of her clothing from major designer collaborations.One of the highlights of the exhibition will be a special section dedicated to Campbell’s work as a runway model. It will feature looks from some of the most historic shows she has ever walked.Elated Campbell took to her Instagram to share the post, she wrote, "I'm HONOURED to be asked by the V&amp;A to share my life in clothes with the world. The V&amp;A's fashion collection is one of the largest collections in the world, and it is a blessing to work with them to share my story. The exhibition NAOMI will take place from 22 June 2024 to 6 April 2025. Love, Light and #Culture @vamuseum @marco.bahler wearing #sarahburton." Advertisement
+</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/lifestyle/fashion/naomi-campbell-s-40-year-career-wardrobe-to-be-exhibited-at-london-s-famous-v-a-museum-2023-10-06-896538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Actor Imran Khan makes SHOCKING revelations about his body, says 'took steroids to...'    </t>
+  </si>
+  <si>
+    <t>After disappearing from showbiz for years, Imran Khan is now interacting with his fans on social media. The former actor, who is said to make a comeback to Bollywood, recently opened up about his body image issues and admitted taking steroids to bulk up. He also shared about struggles with being an actor.In a lengthy post on Instagram, Imran Khan wrote, "I've always been skinny. I'm one of those hyper-metabolic people, my body just burns through whatever I consume. Oh no, what a terrible affliction! In my late teens, guys around me started joining gyms and working out. They started to expand, their biceps stretching the sleeves of their t-shirts. I wore a size S, and my sleeves were still loose."Speaking about his character Jai Singh Rathore, Khan said he was too skinny and had to hit the gym for his character in Kidnap. "I didn't need to be muscular to play Jai Singh Rathore... but I was convinced that I was too skinny, which is why Jai mostly wears two layers of clothing throughout Jaane Tu. For my next film, Kidnap, I hit the gym in earnest, and began my journey with bodybuilding."Sharing his lifestyle, Khan revealed that he worked out regularly but people still called him weak and a little boy. "Over the next few years, the sculpting and maintenance of my body became part of my lifestyle. I worked out regularly, but still, I would hear "So... you'll bulk up a bit before we start shooting, right?"; "You're looking weak", "You look like a little boy, not a man", and "The heroine looks bigger than you" (ouch for both of us!)."Advertisement
+ Imran Khan further made shocking revelations and said he battled depression and became skinnier. His photos often triggered rumours about his wellbeing and his taking drugs. "When I was photographed, it sparked a media discussion about my wellbeing, and speculations of drug abuse! I felt deeply ashamed, embarrassed to be seen by anyone in this state. So I retreated further," Khan said.</t>
+  </si>
+  <si>
+    <t>celebrities</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/celebrities/actor-imran-khan-makes-shocking-revelations-about-his-body-steroids-depression-2023-10-06-896537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Chhattisgarh Police Recruitment 2023: Notification out for 6,000 Constable posts, Apply from October 20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhattisgarh Police Constable Vacancy 2023: The Chhattisgarh Police has issued recruitment noitification for Chhattisgarh  Police Constable Vacancy 2023. A total of 6,000 vacancies of Police Constable posts are to be filled through this recruitment notification. The application process will commence on October 20 and will conclude on November 30, 2023.Aspiring candidates can fill the online application form for the Chhattisgarh Police Constable Recruitment 2023 through the official website-- cgpolice.gov.in. This recruitment process will fill the posts of Constable GD, Constable Driver, Constable Trade and others.The selection of candidates will be based on written exam, physical measurement test (PMT), physical efficiency test (PST) and document verification. Candidates from unreserved (UR) and Other Backward Classes (OBC) categories are required to pay Rs 200 as an examination fee, whereas candidates from Scheduled Castes (SC) and Scheduled Tribes (ST) will have to pay Rs 125.A total number of 5,967 posts is to be filled in the department through this recruitment process.District / Unit - Number of PostsAdvertisement
+ Total Posts - 5,967Educational Qualification
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/what-will-happen-to-old-parliament-building-now-explained-2023-09-18-893451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      First-of-its-Kind Initiative by Seven Esteemed Ganpati Mandalas in Pune    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seven Ganpati Mandalas from Pune have joined forces to organise an idol donation ceremony for the "Ganpatyar Temple" in Kashmir to commemorate Ganesh Utsav. As a result of this event, Kashmir will hold a one-and-a-half-day Ganesh Utsav this year. Mr Punit Balan, trustee and festival director of the Shrimant Bhau Saheb Rangari Trust, expressed the belief that the Ganesh festival would bring happiness, prosperity, and peace to the Kashmir region.This year, the Shrimant Bhau Saheb Rangari Ganpati Trust, along with six other Ganpati Mandalas from Pune, has decided to hold a public Ganesh Utsav in Kashmir. As a result, Sandeep Kaul and Shishant Chako of Srinagar's Ganpatiyar Temple were given a replica of Bappa, the village deity of Pune's Kasba Ganpati Mandal. Ganesh Utsav will be held in Kashmir for one and a half days this year. This noble endeavour was initiated by seven Mandalas, including Kasba Ganpati Mandal, Tambadi Jogeshwari Ganpati Mandal, Guruji Talim Ganpati Mandal, Tulshi Baug Ganpati Mandal, Kesariwada Ganpati Mandal, Shrimant Bhau Saheb Rangari Ganpati Mandal, and Akhil Mandai Mandal. On Thursday, they all came together to donate the idol to Kashmir. The Shrimant Bhau Saheb Rangari Ganpati Trust enthusiastically organised the event. Previously, the Abhedya Dhol Tasha team performed admirably.On this occasion, dignitaries such as the trustee of the Shrimant Bhau Saheb Rangari Trust, festival head Punit Balan, the trust's chairman Sanjeev Javale, the president of Kasba Ganesh Mandal Shrikant Shete, the president of Tambadi Jogeshwari Mandal Prasad Kulkarni, the president of Guruji Talim Mandal Praveen Pardeshi, the treasurer of Tulshi Baug Public Ganeshotsav Mandal Nitin Pandit, the representative of Kesari Ganeshotsav Anil Sakpal, the chairman of the Akhil Mandai Mandal Anna Thorat, and other officials were present. On this occasion, Shrikant Shete stated, "Kashmir is heaven on Earth, and Bappa's blessings are here to enhance happiness and prosperity." This idol was given to us as a gift from Bappa, and we are giving it to contribute to a more advanced, prosperous, peaceful, and happy Kashmir."Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/brand-content/news/first-of-its-kind-initiative-by-seven-esteemed-ganpati-mandalas-in-pune-ganesh-utsav-shrimant-bhau-saheb-rangari-ganpati-trust-2023-09-18-893368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Chhattisgarh: Congress MLA's video with bundles of cash sparks controversy | VIDEO    </t>
-  </si>
-  <si>
-    <t>A video featuring a Congress MLA from Chhattisgarh sitting in front of stacks of cash has ignited a political dispute, with the BJP leveling allegations of "corruption" within the state. Meanwhile, the concerned legislator has defended himself, asserting that it's a conspiracy to tarnish his reputation. Chhattisgarh BJP's General Secretary, OP Choudhary, shared the video on his social media account, alleging that the Congress has turned Chhattisgarh into a hub of corruption.In the video, MLA Ramkumar Yadav can be seen seated on a sofa beside a bed where bundles of cash are laid out. Another individual accompanies Yadav, while the third person sitting beside the cash remains unidentified.Choudhary posted on X, "Will Congress accept this video in which bundles of notes are placed in front of its MLA or if it has any doubt over the video, will it show the courage to hand over the matter to CBI for investigation?"He questioned Yadav's claims of being poor and residing in a house under the Pradhan Mantri Awas Yojana. Choudhary said that Yadav's family, spanning generations, had been cattle herders. However, he pointed to the viral video, stating that it contradicted Yadav's assertions.Choudhary accused Congress members of looting Chhattisgarh over five years, alleging a culture of corruption and a "Mafia Raj" in various sectors, including fly ash, sand, coal, and liquor.Advertisement
- During a press conference, Choudhary called on Chief Minister Bhupesh Baghel to acknowledge the "truth" presented in the video and take action against the MLA.Yadav responded, dismissing the video as a conspiracy by some "feudalists" who cannot accept a person from a humble background rising to become an MLA.
-Advertisement
-He explained, "Those who have posted this video only can tell its objective. Neither I am looking at the money nor was my attention towards it. I was just sitting there and something was being told to me. It seems it was posted just to malign my image as I come from a poor family."</t>
-  </si>
-  <si>
-    <t>chhattisgarh-congress-mla-ramkumar-yadav-viral-video-bundles-of-cash-sparks-controversy-bjp-social-media-corruption-2023-09-18-893481</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/chhattisgarh/chhattisgarh-congress-mla-ramkumar-yadav-viral-video-bundles-of-cash-sparks-controversy-bjp-social-media-corruption-2023-09-18-893481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      G20: Multi-institutional collaborations in academics, research, deepened relationship between India-US    </t>
-  </si>
-  <si>
-    <t>With multi-institutional collaborations in academics and research, India-USA collaborations have deepened in the education sector. A bilateral meeting between Prime Minister Narendra Modi and US President Joe Biden during the G20 summit led to the announcement of the India-US Global Challenges Institute, which will concentrate on extensive student and faculty exchanges in addition to joint research and development in critical technologies by institutions of the two countries. This will be the first cooperation of its sort for development. Both seek to create a productive research ecosystem between the US and India. The signing of a Memorandum of Understanding (MoU) between the Council of Indian Institutes of Technology (IIT), which represents Indian universities and the Association of American Universities (AAU) from the USA to establish the India-US Global Challenges Institute, pledging a joint initial investment of at least 10 million US dollars.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/news/g20-multi-institutional-collaborations-in-academics-research-deepened-relationship-between-india-usa-2023-09-18-893479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      FACT CHECK: Viral video falsely claims PM Modi supported opposition's I.N.D.I.A bloc | Know more    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An old video featuring Prime Minister Narendra Modi has been circulating online with a false claim that he expressed support for the opposition's recently formed 'I.N.D.I.A' bloc. However, India TV's Fact Check team has confirmed that the video dates back to 2013, when Modi served as the Chief Minister of Gujarat, and in it, he was referring to India as a nation, not the opposition's alliance.The 'I.N.D.I.A' bloc, composed of 26 opposition parties, including the Indian National Congress (INC), the Aam Aadmi Party (AAP), and the All India Trinamool Congress, was established in July. This united front was created to challenge the Bhartiya Janata Party-led National Democratic Alliance (NDA) in the upcoming 2024 general elections. The alliance's full name is the Indian National Developmental Inclusive Alliance (I.N.D.I.A). The misleading connection between the old video of PM Modi and the opposition alliance's name has led to this false claim.In the video, Modi can be seen asking the audience to cheer for India if they desire freedom from poverty, nepotism, corruption, and aspire to build a nation that prioritizes development, national security, and unity. A caption accompanying the video on Facebook reads, "Thank u Modi ji sure we vote for India in 2024.... we love you we need change....."Image Source : INDIA TVFalse claim made by a social media userThe India TV Fact Check team conducted a thorough investigation and confirmed that the video is indeed from 2013, featuring PM Modi as the Chief Minister of Gujarat, expressing his dedication to the country. A Facebook post shared an Aaj Tak news clip that included text like 'Narendra Modi, CM, Gujarat' and 'Modi's Maha Garjana Rally' in Hindi.Advertisement
- Building on this information, the team conducted a keyword search for old videos of Modi during his tenure as Gujarat's CM at the 'Maha Garjana Rally' in Mumbai. They found the full speech uploaded on his official YouTube channel, dated December 22, 2013.
+    <t>https://www.indiatvnews.com/jobs/news/chhattisgarh-police-recruitment-2023-notification-out-for-6000-constable-posts-date-eligibility-criteria-selection-process-syllabus-exam-pattern-2023-10-06-896534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'Boundaries choti hai na': Pakistan trolled after getting bowled out for 286 against Netherlands in World Cup    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan, led by Babar Azam, started their World Cup campaign today against the Netherlands at the Rajiv Gandhi International Stadium in Hyderabad. After being invited to bat first, the Men in Green found themselves in deep trouble at 38/3 in the first 10 overs. The likes of Fakhar Zaman, Imam-ul-Haq and Babar Azam were dismissed cheaply. However, the middle and lower-middle order batters somehow managed to take the team's score to 286.They didn't even bat their full quota of 50 overs and were bundled out in the penultimate over of the innings. Bas de Leede was the best bowler for the Dutch picking up four wickets for 62 runs while Colin Ackermann picked up a couple while also being economical during his spell. Meanwhile, Pakistan captain Babar and vice-captain Shadab are being trolled for their 'boundaries are small in India' and 'pitches are flat in India' comments ahead of the World Cup.During the captain's day event, Babar had stated that bowlers have very little margin for error in India with boundaries being very small. "The boundaries are small. There is no margin for the bowlers. If the bowling is a little bit off, the batsman utilises it. So, there will be high scores," he had said. On the other hand, Shadab Khan likened the conditions in India to Rawalpindi in Pakistan terming that the pitches are very flat."The conditions in India are similar those in Pakistan. In our last match (the warm-up game in Hyderabad), it felt we were playing in Rawalpindi, where we also have the same flat pitch and short boundaries. We are looking forward to learning more about the pitch," he had said after a warm-up game in Hyderabad.But Pakistan struggled with the bat upfront and at the back end to somehow post a competitive total of 286 runs on the board in their opening game. For the same reason, the fans on social media massively trolled the team and especially their captain for his comments. Here are some of the reactions:Advertisement
 Advertisement
 </t>
   </si>
   <si>
-    <t>fact-check-viral-video-falsely-claims-pm-modi-supported-opposition-india-bloc-congress-aap-former-gujarat-cm-bjp-2023-09-18-893478</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/fact-check/fact-check-viral-video-falsely-claims-pm-modi-supported-opposition-india-bloc-congress-aap-former-gujarat-cm-bjp-2023-09-18-893478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Nayanthara shares romantic pictures with husband Vignesh Shivan on his birthday, see pics    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayanthara, who recently made her debut on Instagram, shared a special one for her husband Vignesh Shivan's birthday on Monday. The actress shared three romantic pictures of themselves having blissful time with each other in their balcony. Along with the pictures, she even penned down a long note for Vignesh, expressing her love for him. 
-Also Read: Dhanush attends assistant's wedding in casual jeans and cap, poses with newlywedsIn the caption, Nayanthara wrote, ''Happyyy birthday my blessing. There’s so much that I wanna write about you on this special day but if I start then I don’t think I can stop at JUST a few things !! I am so grateful to you for the Love, u shower on me !! Am so grateful for the respect u have for our relationship !! Am so grateful for everything that you are to me. There’s NO ONE LIKE YOU !! Thank you for coming into my life n making it soooo dreamy ,meaningful n beautiful !! You are the besttttt at everything you do !! With alllllll my heart n soul ,I wish my uyir the bestesttt of everything in life. May Every Dream of urs come true n May God blessss u with all the happiness in the world. I LOVE YOU.''Advertisement
-</t>
-  </si>
-  <si>
-    <t>celebrities</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/celebrities/nayanthara-shares-romantic-pictures-with-husband-vignesh-shivan-on-his-birthday-see-pics-2023-09-18-893469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      British comedian and actor Russell Brand faces sexual assault allegations: Reports    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comedian, actor, and social influencer Russell Brand has been accused of sexual assault allegations from four women who knew him when he was at the peak of his fame. According to a report in Sunday Times, The Times of London,  Channel 4' Dispatched, from their investigation it has now come up that one woman has allegedly raped her, while three others have accused him of sexual assault. One of the women has even said that Russell had been emotionally and physically abusive.But right after the allegations have surfaced, Russell has denied it and even posted a video regarding this. Though he never mentioned the publication's name, but he pointed it out to the mainstream media and said very serious allegations have been pointed at me. Due to the allegations, many one-man shows of his now stands postponed. 
-Advertisement
-</t>
-  </si>
-  <si>
-    <t>hollywood</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/hollywood/british-comedian-and-actor-russell-brand-faces-sexual-assault-allegations-reports-2023-09-18-893468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Earthquake of magnitude 6.3 jolts northeast of Taiwan    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan earthquake: United States Geological Survey (USGS) on Monday reported an earthquake of magnitude 6.3 on the Richter scale that jolted northeast of Taiwan. The quake occurred at 18:51:23 (UTC+05:30) and the depth was registered at 183.5 km.Advertisement
- </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/earthquake-taiwan-magnitude-northeast-region-united-states-geological-survey-epicentre-casualties-latest-updates-2023-09-18-893464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      WATCH: Dhanush attends assistant's wedding in casual jeans and cap, poses with newlyweds    </t>
-  </si>
-  <si>
-    <t>South star Dhanush, who is currently busy with Captain Miller shoot, took out some time to attend his assistant's wedding reception in Chennai. The actor made a surprise entry at his assistant Anand's wedding. Several pictures and videos of the actor, shared by his fan pages on Instagram, is doing rounds on the internet. In these pictures and videos, Dhanush can be seen interacting and posing with the newlyweds. Anand has been assistant for Dhanush for many years.  Dhanush made his assistant Anand's day as he attended his reception. He arrived for the celebrations along with Ken and his team. For the wedding, the actor opted for a casual look and was seen wearing a beige shirt, blue jeans and a blue cap. Also Read: Shah Rukh Khan-starrer Jawan becomes first Hindi film to mint Rs 50 cr in dubbed versionsCheck out pics and videos: Advertisement
- The 40-year-old actor on Monday took to his Instagram handle to share a picture of the Ganesh Chaturthi celebration at his home with his two sons, Yatra and Linga. In the picture, the actor can be seen sitting along with his sons and praying to Lord Ganesha. In the caption, he wrote, ''Happy vinayagar chathurthi.''
-Advertisement
-He was last seen in Venky Atluri's directorial Vaathi. He recently wrapped the shoot of Captain Miller and the film is scheduled to release in December this year. Also Read: Allu Arjun begins Ganesh Chaturthi celebration at home, shares picture with wife Sneha</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/celebrities/watch-dhanush-attends-assistant-wedding-in-casual-jeans-and-cap-poses-with-newlyweds-2023-09-18-893461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Jawan: Shah Rukh Khan-starrer becomes first Hindi film to mint Rs 50 cr in dubbed versions    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shah Rukh Khan's Jawan is currently on a winning spree, shattering every possible box office record for a Hindi film. Not only its original Hindi version, but its Tamil and Telugu versions are also churning out big at the box office. Within 11 days of its theatrical release, the film has added another feather to its cap and broken another record. Jawan has become the only Hindi film to have crossed the Rs 50 crore mark in its dubbed versions. Trade analyst and film critic Taran Adarsh shared the latest box office figures of Jawan on his social media accounts terming the film as 'Box Office Dinosaur'.
-Also Read: Sunny Deol enjoys pizza party with dad Dharmendra during US vacation, see picAdvertisement
- </t>
-  </si>
-  <si>
-    <t>bollywood</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/bollywood/jawan-shah-rukh-khan-starrer-becomes-first-hindi-film-to-mint-rs-50-cr-in-dubbed-versions-2023-09-18-893439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Mohanlal-starrer Malaikottai Vaaliban's release date announced; film to clash with Hrithik Roshan's Fighter    </t>
-  </si>
-  <si>
-    <t>Malayalam megastar Mohanlal will be soon seen in the upcoming film Malaikottai Vaaliban as the film has locked its release date for January 25 next year. The pan-India film will be clashing with Hrithik Roshan and Deepika Padukone-starrer Fighter at the box office. Malaikottai Vaaliban has been directed by Lijo Jose Pellissery, whose earlier film Jallikattu was India's official entry to the Oscars, back in 2020.It also stars Sonalee Kulkarni, Hareesh Peradi, Manoj Moses, Katha Nandi, Danish Sait and Manikandan R Achari.
-Also Read: Allu Arjun begins Ganesh Chaturthi celebration at home, shares picture with wife SnehaIn the pocter, Mohanlal is seen in a never before seen avatar. He can be seen sitting on a desert land wearing rural Indian attire. The film is set in the pre-independence era, and is a mass action entertainer with visuals to watch out for as it was shot across Rajasthan, Chennai, and Puducherry for around 130 days.Advertisement
- Talking about the film, Mohanlal said, "To work with Lijo Jose Pellissery has been very enriching as his cinematic approach is totally unique. His films stand apart not just for their technical finesse but also their themes and this project is no different. I hope, together we will be able to live up to the expectations of the audience."Director Lijo Jose Pellissery said, "This is a period film which demanded someone with the gravitas of Mohanlal sir and we are very proud of what we have created together. Working with a legend like him is indescribable as he comes with a lifetime of experience as an actor. To see him vanish into the character is incredible."
-Advertisement
-The film is written by PS Rafeeque and features cinematography by Madhu Neelakandan and music by Prashanth Pillai.</t>
-  </si>
-  <si>
-    <t>regional-cinema</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/regional-cinema/mohanlal-starrer-malaikottai-vaaliban-release-date-announced-film-to-clash-with-hrithik-roshan-fighter-2023-09-18-893424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Animal: Ranbir Kapoor makes a swagger appearance in new poster; film's teaser to be out on THIS date    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the romantic comedy Tu Jhoothi Main Makkaar, Ranbir Kapoor is all set to turn 'Animal' in his upcoming action thriller. The makers of Animal on Monday shared a new poster of the film featuring the lead actor. The poster features Ranbir Kapoor in an elegant and wild avatar, showcasing his character's rage.In the poster, Ranbir can be seen donning formal attire with a royal blue blazer, matching shirt, alongwith a square shaped sunglasses. He is looking suave in a long hairstyle, with a cigarette in his mouth, and a lighter in one hand. 
-Also Read: Zareen Khan issues clarification after reports of her being served with arrest warrant surfacesThe poster features Ranbir in a never-seen-before rowdy avatar. Sharing the, poster, T-Series Films wrote “He is elegant He is Wild... You will see his rage on September 28. #AnimalTeaserOn28thSept @AnimalTheFilm #AnimalOn1stDec”. Advertisement
- Ranbir’s character promises to be a tour de force, and the teaser is going to be a testament to the intensity, and intrigue that this film promises to deliver.Along with the poster, the makers of the film also mentioned the release date of its much-awaited teaser. It will be unveiled on Ranbir's birthday, i.e., September 28 at 10 am.
-Advertisement
-</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/bollywood/animal-ranbir-kapoor-makes-a-swagger-appearance-in-new-poster-film-teaser-to-be-out-on-this-date-2023-09-18-893385</t>
+    <t>https://www.indiatvnews.com/sports/cricket/boundaries-choti-hai-na-pakistan-trolled-after-getting-bowled-out-for-286-against-netherlands-in-world-cup-2023-10-06-896532</t>
+  </si>
+  <si>
+    <t>Mission Raniganj Review: Did Akshay Kumar as Jaswant Singh Gill justify real story of coal miners? Know here</t>
+  </si>
+  <si>
+    <t>Bollywood's Khiladi Akshay Kumar and Parineeti Chopra-starrer film 'Mission Raniganj' has been released in theaters today. In this film, Akshay Kumar is seen in the role of Jaswant Gill, who was a mining engineer. The story of the film is based on the true story of Jaswant Gill, who saved the lives of 65 people trapped in the flood of coalmine in West Bengal. After doing films like 'Airlift', 'Special 26' and 'Baby', Akshay has come to tell the world the story of another real hero through 'Mission Raniganj', about which many people do not know. How is this movie? How is its story? How is Akshay Kumar's character? Read our review to know.
+Mission Raniganj's story
+The story of the film starts from Raniganj where it is shown how the people there are earning their living by working in the coal mines. A labourer brings a TV to his home with his hard-earned money, on which the entire village gathers at his house to watch the Mahabharata. Everyone looks very happy during this time. On the other hand, Jaswant Singh Gill (Akshay Kumar) comes to Raniganj with his pregnant wife Nazukta (Parineeti Chopra). Jaswant was working as a rescue engineer of Coal India Limited in Raniganj, Kolkata.
+How 71 people got trapped in Raniganj coal mine?
+Now, the real story begins when the coal mine workers were happily leaving for the night shift. About 71 people go inside the mine. After this, blasting is done in the mine below, after which suddenly water starts seeping into the mine. Gradually the flow of water becomes very fast. 71 labourers get trapped 350 feet below. Although, initially six labourers had committed suicide. After this, Akshay Kumar i.e. Jaswant Singh Gill takes the responsibility of saving the lives of 65 people trapped below.
+Who is not only a mining engineer but also a rescue trained officer.
+How Jaswant Singh Gill prepared a capsule to save people?
+Here, the senior officers present at the site try their best to solve this difficult situation. But they fail. Time is less and work is more. The people of the village are also scared because a member of their family is trapped in the coal mine below. Despite all efforts, nothing was working. In such a situation, Gill Sahab gets an idea. They prepare a capsule. Initially no one takes Jaswant Singh Gill seriously but the local management of the mine sees hope in him.
+One and one become eleven with the help of the technician who supports him in doing experiments other than traditional techniques. The work begins. Meanwhile, some people with business rivalries want that this mission should not be successful in any way. Obstacles are put up. Conspiracies are hatched. Now, in such a situation, how many labourers can Jaswant Singh Gill save? To know this, you must go to the theater and watch 'Mission Raniganj'.
+How is the star cast of the film?
+Akshay Kumar does not look like Akshay Kumar in this film. He has worked very hard on the character. From look to language, everything is different. Looking at Akshay Kumar's character in this film, it would not be wrong to say that now Akshay is leaving aside the obsession of box office and focusing on choosing legitimate stories. Even though this film may not be able to collect crores, the story of real hero that Akshay has brought to the people through this film is a big thing in itself.
+Parineeti Chopra is also looking good in the role of Jaswant Singh Gill's wife in this film. People may like her Punjabi acting in the film to a great extent. Apart from these, actors like Kumud Mishra, Pawan Malhotra, Varun Badola, Dibyendu Bhattacharya, Rajesh Sharma, Virendra Saxena, Anand Mahadevan, Jamil Khan, Sudhir Pandey, Ravi Kishan have worked to make the story more powerful with their respective characters. Ravi Kishan's character is worth watching in this film.
+Ravi Kishan, who was seen in the role of 'Bhola', has also contributed to his acting in this film. The supporting characters trapped in the mine have also done a good job.
+Film's direction
+'Mission Raniganj' has been directed by Tinu Suresh Desai. The subject matter of the story is such that if it was not presented well, its soul would have been lost. Director Tinu Suresh Desai deserve a huge round of applause for his work. Desai has maintained his grip from the first shot of the film till the climax. Let us tell you that Tinu has also made the film 'Rustom' with Akshay Kumar in the past. Akshay received the National Award for Best Actor for Rustom. Now, the film 'Mission Raniganj' should be watched. 'Mission Raniganj' takes you 18 years ago, when the workers were facing death and their only hope was Jaswant Singh Gill. If you like a good story and exciting drama then this film is for you, definitely watch it.
+Bollywood's Khiladi Akshay Kumar and Parineeti Chopra-starrer film 'Mission Raniganj' has been released in theaters today. In this film, Akshay Kumar is seen in the role of Jaswant Gill, who was a mining engineer. The story of the film is based on the true story of Jaswant Gill, who saved the lives of 65 people trapped in the flood of coalmine in West Bengal. After doing films like 'Airlift', 'Special 26' and 'Baby', Akshay has come to tell the world the story of another real hero through 'Mission Raniganj', about which many people do not know. How is this movie? How is its story? How is Akshay Kumar's character? Read our review to know.The story of the film starts from Raniganj where it is shown how the people there are earning their living by working in the coal mines. A labourer brings a TV to his home with his hard-earned money, on which the entire village gathers at his house to watch the Mahabharata. Everyone looks very happy during this time. On the other hand, Jaswant Singh Gill (Akshay Kumar) comes to Raniganj with his pregnant wife Nazukta (Parineeti Chopra). Jaswant was working as a rescue engineer of Coal India Limited in Raniganj, Kolkata.Now, the real story begins when the coal mine workers were happily leaving for the night shift. About 71 people go inside the mine. After this, blasting is done in the mine below, after which suddenly water starts seeping into the mine. Gradually the flow of water becomes very fast. 71 labourers get trapped 350 feet below. Although, initially six labourers had committed suicide. After this, Akshay Kumar i.e. Jaswant Singh Gill takes the responsibility of saving the lives of 65 people trapped below.Who is not only a mining engineer but also a rescue trained officer.Here, the senior officers present at the site try their best to solve this difficult situation. But they fail. Time is less and work is more. The people of the village are also scared because a member of their family is trapped in the coal mine below. Despite all efforts, nothing was working. In such a situation, Gill Sahab gets an idea. They prepare a capsule. Initially no one takes Jaswant Singh Gill seriously but the local management of the mine sees hope in him.One and one become eleven with the help of the technician who supports him in doing experiments other than traditional techniques. The work begins. Meanwhile, some people with business rivalries want that this mission should not be successful in any way. Obstacles are put up. Conspiracies are hatched. Now, in such a situation, how many labourers can Jaswant Singh Gill save? To know this, you must go to the theater and watch 'Mission Raniganj'.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/movie-review/mission-raniganj-movie-review-did-akshay-kumar-as-jaswant-singh-gill-justify-real-story-of-coal-miners-find-out-here-817</t>
   </si>
 </sst>
 </file>
@@ -693,35 +695,35 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -735,35 +737,35 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -777,105 +779,102 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -889,49 +888,49 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>69</v>
@@ -945,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>72</v>

--- a/server/IndiaTv.xlsx
+++ b/server/IndiaTv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Heading</t>
   </si>
@@ -29,286 +29,284 @@
   </si>
   <si>
     <t xml:space="preserve">
-Live nowIndia TV-CNX Opinion Poll: BJP to sweep Haryana and Delhi, AAP-Congress alliance leads in Punjab    </t>
-  </si>
-  <si>
-    <t>Lok Sabha Elections 2024: Ahead of the assembly elections in five key states and next year's Lok Sabha polls, political parties are leaving no opportunity to campaign for their respective parties and lure voters to better their prospects. Amid this election season, India TV-CNX conducted an opinion poll to gauge the mood of the voters and predict which leader is likely to become the Prime Minister if elections are held today. In an earlier opinion poll conducted by India TV-CNX in July, results of which were telecast in "Desh Ki Awaz" special show on the channel, predicted a massive victory of Modi-led NDA's over Opposition if Lok Sabha polls were held then. So, will it be Narendra Modi again or Rahul Gandhi or someone else from I.N.D.I.A. bloc, what's the mood of voters now. Let's take a look.Advertisement
- Latest India NewsAccording to the India TV-CNX Opinion Poll, the BJP is expected to get 53% of votes in Himachal Pradesh, while the Congress is likely to get 37% of votes. The poll also predicts 3 Lok Sabha seats for BJP in Himachal Pradesh, while Congress may have to settle with just one seat. According to the India TV-CNX Opinion Poll, the BJP is expected to get 18% of votes in Punjab, Aam Aadmi Party (AAP) and Congress are likely to get 28% and 25% of votes respectively. Shiromani Akali Dal led by Sukhbir Singh Badal is expected to get 19% of votes in Punjab. The poll predicts 6 Lok Sabha seats for AAP in Punjab, and Congress is likely to get 5 seats. Meanwhile, the BJP and Shiromani Akali Dal are likely to get only 1 Lok Sabha seat each in the state. Image Source : INDIA TVIndia TV-CNX Opinion Poll: PunjabAccording to the India TV-CNX Opinion Poll, the BJP is expected to get 52% of votes in Delhi, while Aam Aadmi Party (AAP) and Congress are likely to get 25% and 17% of votes respectively. As per the projection, the BJP is likely to win all 7 Lok Sabha seats again in Delhi.According to the India TV-CNX Opinion Poll, BJP is expected to get 53% of votes in Jharkhand, while Congress is likely to get 17% of votes. Hemant Soren-led Jharkhand Mukti Morcha (JMM) to get just 13% of votes in the state. The poll also predicts 12 Lok Sabha seats for BJP in Jharkhand, 1 each for AJSU and JMM.According to the India TV-CNX Opinion Poll, the BJP is expected to get 56% of votes in Goa, while Congress is likely to get 35% of votes. The saffron party is also expected to win both Lok Sabha seats in the state. Image Source : INDIA TV India TV-CNX Opinion Poll: GoaAccording to India TV-CNX Opinion Poll, the BJP is expected to get 32% of votes in Maharashtra, alliance partners Shiv Sena of Eknath Shinde and NCP (Ajit Pawar) to get 10% and 5% of votes respectively. The BJP-led alliance is expected to get 47% of votes in the state. Meanwhile, the Congress-led alliance is expected to get 42% of votes in Maharashtra. As per the opinion polls, the BJP is expected to get 22 seats in Maharashtra, while Congress is likely to get 9 seats. The prediction further shows that Eknath Shinde-led Shiv Sena to get 4 seats, while Uddhav Thackeray-led Sena is likely to get 8 seats. Further, there seats likely to be bagged by Sharad Pawar-led NCP, and Ajit Pawar-led NCP may get 2 seats in the state.  According to the India TV-CNX Opinion Poll, the BJP is expected to get 50% of votes in Jammu and Kashmir and Ladakh, while Congress is likely to get 10% of votes. As far as regional parties are concerned, Omar Abdullah's National Conference (JKNC) is expected to get 17% of votes, while Mehbooba Mufti's PDP is likely to get just 4% of votes. Ghulam Nabi Azad-led Democratic Progressive Azad Party (DPAP) is expected to get 7% of votes in Jammu and Kashmir and Ladakh.India TV-CNX Opinion Poll predicts 3 Lok Sabha seats for BJP in Jammu and Kashmir and Ladakh.  National Conference is likely to get 2 seats, while Ghulam Nabi Azad-led Democratic Progressive Azad Party (DPAP) is expected to win 1 seat. Image Source : INDIA TVIndia TV-CNX Opinion Poll: Jammu and Kashmir, LadakhAccording to the India TV-CNX opinion poll, the BJP is expected to get 59% of votes in Uttarakhand, while Congress is likely to get 39% of votes. The prediction also shows that the saffron party is likely to sweep all five seats in the state, if elections are held today. Image Source : INDIA TVIndia TV-CNX opinion poll: Uttarakhand The BJP is expected to get 61 per cent of votes in Gujarat while the Congress may secure 28 per cent vote share, according to the India TV-CNX opinion poll. The survey further predicts Aam Aadmi Party (AAP) to get just 8% of votes in the state. As per the survey, the saffron party is expected to sweep Gujarat by winning all 26 seats in the state.  Image Source : INDIA TVIndia TV-CNX opinion poll: GujaratAccording to India TV-CNX opinion poll, the BJP is expected to get 41 per cent of votes in Odisha, the Biju Janata Dal (BJD) is likely to get 45 per cent and Congress may get around 11 per cent vote share, if Lok Sabha elections are held today.In terms of seats, the survey predicts 8 Lok Sabha seats for the saffron party and 13 for Naveen Patnaik's BJD.Image Source : INDIA TVIndia TV-CNX opinion poll | OdishaIn West Bengal, which has 42 Lok Sabha seats, the BJP is expected to win 10 seats whereas Mamata's Trinamool Congress is likely to get 30 seats.In terms of vote share, the saffron party may get 36 per cent of votes and Trinamool Congress is expected to bag 48 per cent.Meanwhile, the Left Front is expected to get 6 per cent of votes and Congress about 7 per cent.Compared to 2019 results, the BJP may lose 8 seats while TMC is likely to gain 8 more if predictions match election results when they are held next year.Image Source : INDIA TVIndia TV-CNX opinion poll | West BengalThe BJP is expected to get 49 per cent of votes in Rajasthan while the Congress may secure 41 per cent vote share, according to India TV-CNX opinion poll.The survey further predicts that the saffron party may win 23 lok sabha seats in the state and Congress is likely to get 2.Compared to 2019, the BJP is likely to lose one seat and the grand old party may gain 2 if the prediction matches results when general elections are held in the country.Image Source : INDIA TVIndia TV-CNX opinion poll | Rajasthan According to India TV-CNX opinion poll, the BJP is expected to get 48 per cent vote share in Madhya Pradesh whereas the Congress may get 41 per cent votes.The survey further predicts that the saffron party may win 25 lok sabha seats while Congress may win 4.Comparing to 2019 results, the BJP may lose 3 seats and Congress could gain 3 if these projections match the results whenever elections are held.Image Source : INDIA TVIndia TV-CNX opinion poll | Madhya Pradesh  In Chhattisgarh, the BJP is expected to get 46 per cent of votes and the Congress may secure 43 per cent, according to India TV-CNX opinion poll.In terms of seat projection, then the BJP may win 7 lok sabha seats while Congress is likely to get 4.Comparing it with 2019 results, the BJP may lose 2 seats in Chhattisgarh whereas Congress is likely to gain 2.Image Source : INDIA TVIndia TV-CNX opinion poll | Chhattisgarh India TV-CNX opinion poll predicts that the DMK is expected to get 31 per cent votes in Tamil Nadu while AIADMK may get 25 per cent.The Congress is likely to get 11 per cent votes and BJP may only secure 7 per cent.The survey predicts that the DMK is expected to become the single largest party in Tamil Nadu and may win 21 seats whereas AIADMK may get 6 seats.Image Source : INDIA TVIndia TV-CNX opinion poll | Tamil NaduAccording to India TV-CNX opinion poll, the BJP is expected to get 44 per cent votes in Karnataka while Congress may get 40 per cent, and JDS likely to get 11 per cent.In terms of seats, then the BJP may win 16, Congress likely to get 10 while JDS may win 2.Comparing it with 2019 results, the BJP may lose 9 Lok Sabha seats in Karnataka while Congress may gain 9 if elections are held today.Image Source : INDIA TVIndia TV-CNX opinion poll | Karnataka According to India TV-CNX opinion poll, BJP-led NDA is likely to win 8 seats in other Northeastern states including Manipur, Sikkim, Meghalaya, Mizoram, Tripura, Nagaland and Arunachal Pradesh, whereas the Congress may win 3.In Assam, the BJP is likely to get 42 per cent votes in Assam. In terms of seat projection, then the saffron party is likely to win 12 Lok Sabha seats while Congress may get one.Out of 20 Lok Sabha seats in Kerala, the Congress-led UDF may win 16 while LDF is expected to get 4 seats. Comparing it with 2019 results, then the Congress-led UDF is set to lose 3 Lok Sabha seats whereas LDF is likely to gain 3, according to India TV-CNX opinion poll.According to India TV-CNX opinion poll, the LDF is likely to get 39 per cent votes in Kerala while Congress-led UDF is expected to get 47 per cent vote share. The BJP-led NDA may get 13 per cent of votes but may not be able to win even a single seat.India TV-CNX opinion poll predicts 15 lok sabha seats for YSRCP in Andhra Pradesh, Chandrababu Naidu's TDP to get 10. Both BJP and Congress are expected to score a duck in the state.Comparing it with 2019 elections, then the YSRCP may lose 7 Lok Sabha seats while TDP is likely to gain 7 more in 2024.In 2019, YSRCP won 22 Lok Sabha seats including Araku, Vizianagaram, Visakhapatnam, Anakapalli, Kakinada, Amalapuram, Rajahmundry, Narasapuram, Eluru, Machilipatnam, Narasaraopet, Bapatala, Ongole, Nandyal, Kurnool, Anantapur, Hindupur, Kadapa, Nellore, Tirupati, Rajampet and Chittoor.In Andhra Pradesh, Jagan Mohan Reddy-led YSRCP is likely to get 46 per cent of votes, TDP is expected to get 42 per cent while Congress and BJP may get only 3 per cent and 2 per cent votes.BJP had won four Lok Sabha seats in 2019 including Secunderabad, Adilabad, Nizamabad and Karimnagar.Image Source : INDIA TVIndia TV-CNX Opinion Poll | Andhra Pradesh According to India TV-CNX opinion poll, BRS is likely to get 40 per cent votes in Telangana, BJP is expected to get 28% while Congress may secure third spot with 23 per cent votes.</t>
+      Women's Reservation Bill cleared in Cabinet meeting chaired by PM Modi: Sources    </t>
+  </si>
+  <si>
+    <t>The Women's Reservation Bill was cleared in the Cabinet meeting chaired by PM Modi, said sources on Monday.  According to sources, the bill is likely to be tabled in the new parliament tomorrow. The decision comes a day after several parties including Congress demanded the passage of the bill in the all-party meeting held on Sunday (September 17).They demand the bill to be passed in the new Parliament building during the special session. However, the government made no official reaction to their demand.Congress leader Adhir Ranjan Chowdhury after the meeting  said, "All opposition parties demanded the passage of women's reservation bill in this Parliament session." BJP ally and NCP leader Praful Patel said, "We appeal to the government to pass the women's reservation bill in this Parliament session."Several regional parties including the BJD and the BRS also pushed for tabling of the bill. BJD MP Pinaki Misra said a new era should begin from the new Parliament building and the women's reservation bill should be passed.Advertisement
+ BRS leader Kavitha has been a prominent voice in renewing the demand for the passage of the bill in the parliament. In fact, she sat on a hunger strike and held agitation with leaders from other political parties and civil society organisations across India in March 2023. 
+Advertisement
+What is the Women's Reservation Bill?_x000D_
+The bill seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies. Women MPs account for less than 15 per cent of Lok Sabha strength while their representation is below 10 per cent in many state assemblies, data shows amid a renewed push for the women reservation bill pending for nearly 27 years. The bill was initially introduced in the parliament on September 12, 1996.Also read: Women's Reservation Bill: Why is this quota needed? Know about benefits and challenges | EXPLAINEDCurrent status of the bill_x000D_
+The last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move to reserve 33 per cent seats for women in Lok Sabha and state assemblies, but the bill lapsed as it could not be passed by Lok Sabha.</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-live-updates-who-will-become-pm-if-lok-sabha-elections-are-held-today-modi-rahul-nitish-mamata-akhilesh-nda-india-bloc-896329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Imran Masood, expelled BSP leader, to rejoin Congress tomorrow, calls decision 'ghar wapsi'    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expelled Bahujan Samaj Party leader and former legislator Imran Masood will rejoin Congress party on Saturday (October 7).Masood was expelled from BSP earlier this year for anti-party activities in August this year. He will join the Congress again in the national capital.Masood, who is an influential Muslim leader from Uttar Pradesh's Saharanpur district had joined the BSP after the 2022 Assembly polls, however, he was expelled this year. Before the 2022 Assembly polls, Masood had defected to Samajwadi Party from Congress.He will be rejoining the Congress party tomorrow.The leader lauded Rahul Gandhi and said that he had a "great working experience" when he was earlier a part of Congress and called his rejoining the party as "ghar wapsi".Advertisement
- "In the current situation, Congress leader Rahul Gandhi did Bharat Jodo Yatra. An era of transformation started after that...Earlier too, when I was in the party, I had a great working experience. Unfortunately, for 1-1.5 years I was not a part of the party. Now I am doing 'ghar wapsi'..." he said.
+    <t>https://www.indiatvnews.com/news/india/womens-reservation-bill-cleared-in-cabinet-meeting-chaired-by-pm-modi-sources-latest-update-2023-09-18-893457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      IND vs AUS: Rohit Sharma, Virat Kohli rested for first 2 ODIs; R Ashwin returns to India squad after Jan 2022    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Board of Control for Cricket in India (BCCI) announced two squads for India's three-match ODI series against Australia starting Friday, September 22 in Mohali with a press conference addressed by chief selector Ajit Agarkar and skipper Rohit Sharma. Most of the main squad at the Asia Cup and the World Cup is rested for the first two ODIs with KL Rahul leading the side and veteran spinner R Ashwin has returned to the side for the first time since January 2022.Ruturaj Gaikwad is the only new entrant in the squad as he replaces skipper Rohit for the first two games as an opener with Shubman Gill and Ishan Kishan being the other options at the top of the order. Shreyas Iyer, Suryakumar Yadav, Tilak Varma and stand-in captain Rahul will be in the middle order with R Ashwin, Ravindra Jadeja and Washington Sundar forming the spin attack.The whole pace attack is retained with Hardik Pandya and Kuldeep Yadav being the two others players to be rested. The whole World Cup squad will come back for the third ODI with Ashwin and Sundar staying for the Rajkot game. Axar Patel, who suffered a side strain in the Bangladesh game is subject to fitness for the series finale.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/ind-vs-aus-team-india-squad-for-three-match-odi-series-australia-rohit-sharma-virat-kohli-axar-patel-washington-sundar-2023-09-18-893407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Rajasthan: 16-year-old NEET aspirant dies after consuming poison in Kota    </t>
+  </si>
+  <si>
+    <t>A 16-year-old NEET aspirant from Uttar Pradesh died on Monday after allegedly consuming poison in her hostel room in the Vigyan Nagar area of this coaching hub, police said. The student was rushed to a hospital, where she died after three hours during treatment, they added.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/education/news/rajasthan-16-yr-old-neet-aspirant-dies-after-consuming-poison-in-kota-2023-09-18-893456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      'Congress welcomes': Jairam Ramesh reacts to reports on Cabinet's nod to Women's Reservation Bill    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Congress on Monday reacted to the reports that the Modi Cabinet approved the Women's Reservation Bill which is likely to be tabled in the new Parliament tomorrow.Congress general secretary Jairam Ramesh said his party welcomes the reported move as the grand old party has been raising the demand for long."It’s been a long-standing demand of the Congress party to implement women’s reservation. We welcome the reported decision of the Union Cabinet and await the details of the Bill. This could have very well been discussed in the all-party meeting before the Special Session, and consensus could have been built instead of operating under a veil of secrecy," he posted on X.On Sunday, he shared a detailed post he made on Sunday to underline how the Congress has been supporting the move.Citing his post on X on September 17, Ramesh gave credit to his party for reports that the Cabinet approved the long-pending bill."The Congress Working Committee has demanded that the Women's Reservation Bill must be passed during the Special Session of Parliament," he said quoting the CWC resolution that was passed at its meeting in Hyderabad this weekend.Advertisement
+ Ramesh had on September 17 said former prime minister Rajiv Gandhi first introduced the Constitution Amendment Bills for one-third reservation in panchayats and nagarpalikas in May 1989. It passed in Lok Sabha but failed in Rajya Sabha in September 1989, he noted.He also said then Prime Minister P V Narasimha Rao reintroduced Constitution Amendment Bills for one-third reservation for women in panchayats and nagarpalikas in April 1993. Both Bills passed and became law.
+Advertisement
+"Now there are more than 15 lakh elected women representatives in panchayats and nagarpalikas. This comes to about 40 percent._x000D_
+"As PM, Dr. Manmohan Singh brought Constitution Amendment Bill for one-third reservation for women in Parliament and state legislatures. Bill passed on March 9, 2010 in the Rajya Sabha. But it was not taken up in Lok Sabha," Ramesh claimed.He said Bills introduced/passed in Rajya Sabha do not lapse and the Women's Reservation Bill is still very much active."The Congress party has for the past nine years been demanding that the Women's Reservation Bill already passed by the Rajya Sabha should now get passed by the Lok Sabha as well," he said. </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/congress-welcomes-centres-move-jairam-ramesh-reacted-to-reports-on-cabinet-nod-to-women-reservation-bill-2023-09-18-893471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      After Santiniketan, 'Sacred Ensembles of the Hoysala' inscribed on UNESCO World Heritage List    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Santiniketan, Karnataka's Hoysala temples were inscribed on the UNESCO World Heritage List. The development came a day after the home of Nobel laureate Rabindra Nath Tagore, Santiniketan, was inscribed on the UNESCO World Heritage List. The announcement by the world body was made on Monday in a post on 'X', saying that the 'Sacred Ensembles of the Hoysala', the Hoysala temples of Belur, Halebid and Somnathapura in Karnataka, have been inscribed on the UNESCO World Heritage List."Just inscribed on the @UNESCO #WorldHeritage List: Sacred Ensembles of the Hoysalas, #India. Congratulations!, UNESCO posted on X. The decision was taken during the 45th session of the World Heritage Committee currently underway in Riyadh, Saudi Arabia.PM Modi reactsAdvertisement
+ "More pride for India! The magnificent Sacred Ensembles of the Hoysalas have been inscribed on the @UNESCO World Heritage List. The timeless beauty and intricate details of the Hoysala temples are a testament to India's rich cultural heritage and the exceptional craftsmanship of our ancestors," Prime Minister Narendra Modi posted on X."Good news keeps coming in. A deserving recognition for our traditional art and architecture," External Affairs Minister S Jaishankar posted on X.
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/imran-masood-expelled-bsp-leader-to-rejoin-congress-tomorrow-sources-2023-10-06-896536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      India TV-CNX Opinion Poll: BJP-led NDA likely to lose seats in Maharashtra, Congress to gain    </t>
-  </si>
-  <si>
-    <t>The next year’s Lok Sabha elections in Maharashtra is set to be a neck to neck contest with the predictions of seats swinging from one corner to the other with the nearing general elections. The BJP is still predicted to win most number of seats in the state in 2024, as per the India TV-CNX Opinion Poll conducted on Friday (October 6).In the latest Opinion Poll, the BJP is predicted to win 22 seats while Shiv Sena (Eknath Shinde faction) is shown to win 4 seats. Ajit Pawar’s NCP is slated to bag 2 seats next year. The NDA’s tally, therefore, is likely to touch 28 mark out of the total 48 seats.The Opposition alliance I.N.D.I.A, on the other hand, is predicted to win 20 seats in total, out of which Congress’ share is likely to be 9 seats, while Shiv Sena (UBT) and NCP (Sharad Pawar’s group) are predicted to win 8 and 3 seats respectively.Image Source : INDIA TVIndia TV-CNX Opinion PollIn terms of vote percentage, as per the India TV-CNX Opinion Poll, BJP is expected to get 32% of votes in Maharashtra, alliance partners Shiv Sena of Eknath Shinde and NCP (Ajit Pawar) to get 10% and 5% of votes respectively.The NDA is likely to get 47% of votes in Maharashtra in 2024 Lok Sabha polls., whereas Congress is expected to get 15% of votes in Maharashtra.The Congress’ alliance partners Shiv Sena of Uddhav Thackeray and NCP (Sharad Pawar) are predicted to get 15% and 12% of votes respectively.Image Source : INDIA TVIndia TV-CNX Opinion PollCongress-led alliance is expected to get 42% of votes in Maharashtra.In the previous Opinion Poll conducted by India TV in July this year after Ajit Pawar parted ways with Sharad Pawar, the NDA which comprises of BJP, Shiv Sena (Eknath Shinde faction) and NCP (Ajit Pawar group) was predicted to lose some seats in the 2024 polls, than what it (BJP and undivided Shiv Sena) won in 2019.Advertisement
- The undivided NDA (BJPand Shiv Sena) had secured 41 seats out of 48 seats in 2019 Lok Sabha polls.In the Opinion Poll in July, the BJP was predicted to win 20 seats next year, suffering a loss of 3, while its ally Shiv Sena led by Eknath Shinde was predicted to win only 2 seats as against its rival faction led by Uddhav Thackeray which was shown to grab 11 seats in 2024.
-Advertisement
-The earlier poll showed that the loyal voters of Shiv Sena were undeterred by the split in the party and were likely to back Uddhav Thackeray.Congress, in the July poll, was predicted to take a significant leap from its 2019 tally and shown to win 9 seats next year.In 2019, the BJP and Shiv Sena had contested the elections together as NDA and secured 41 out of 48 seats, riding on the Modi factor which was prevalent last time. The BJP won 23 while Shiv Sena emerged victorious on 18 seats.The Opposition parties including NCP, Congress, AIMIM, and Independent were crushed as they won only 7 seats together. NCP had bagged 4, and Congress, AIMIM and Independent had won 1 seat each.However, with new alliances formed since the 2019 general elections in Maharashtra, the number game has become closer for the parties.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-goa-maharashtra-prediction-bjp-shiv-sena-ncp-congress-mva-devendra-fadnavis-eknath-shinde-ajit-pawar-sharad-uddhav-thackeray-2023-10-06-896521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Asian Games 2023: Men's hockey team beats Japan to win Gold, secures Paris Olympics ticket    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Indian team defeated Japan 5-1 in the hockey men's final at Asian Games 2023 to clinch Gold on Friday, October 6. India's unbeaten run in Asiad continued as they thrashed champions Japan with Manpreet Singh, Harmanpreet Singh, Abhishek and Amit Rohidas scoring goals in the final. With a win, India also confirmed a qualification for the Paris Olympics 2024.India had beat Japan in their Pool A match by 4-2 and repeated a similar impressive all-round performance in the final. Harmanpreet and Manpreet ran the show at Hangzhou's GSP Stadium with the skipper adding two goals. Japan put up a brilliant fight in the first half but India utterly dominated the second half with four goals.Both teams enjoyed a thrilling first quarter but were not able to break the deadlock. Harmanpreet missed a chance to give India a lead in the 14' minute from the penalty corner but his effort was brilliantly blocked by Takumi. Rohidas also missed a chance to score from the penalty corner in the 17' minute as Japan's defence stood firm.Advertisement
- Manpreet gave India a breakthrough with his 13th goal of the tournament during the 25-minute with a reverse flick past the goalie. India kept their lead till the half-time whistle as Japan failed to bounce back. India turned up better after the break and added four goals to display their dominance in Asiad 2022. Harmanpreet added his first goal from the penalty corner in the 32' minute to stretch India's lead. </t>
-  </si>
-  <si>
-    <t>hockey</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/hockey/asian-games-2023-men-s-hockey-team-beats-japan-to-win-gold-secures-paris-olympics-ticket-2023-10-06-896519</t>
-  </si>
-  <si>
-    <t>Thank You For Coming Review: Bhumi Pednekar's film is all 'very changa si' but late by 25 years</t>
-  </si>
-  <si>
-    <t>The fictional Samantha Jones of Sex and the City once said, “The good ones screw you, the bad ones screw you…and the rest don’t know how to screw you.” That was New York, where discussing sexual pleasure, unabashedly at that, with your girlfriends wasn't frowned upon. But, hello! We are also the land of the Kama Sutra, where women are allegedly born with an ‘instruction manual’ and it took more than a few decades for Bollywood to voice what women want in bed. Karan Boolani’s Thank You For Coming is not the first Hindi film hollering loud about sex and orgasms. But, thankfully, it is more than just sex.
-For the film, Boolani brought Bhumi Pednekar, Shehnaaz Gill, Dolly Singh, Shibani Bedi, and Kusha Kapila together on screen. However, it is said too many cooks spoil the broth, the analogy applies to the film too. Too many fingers and thrusts but just no teeny, weeny orgasm.
-Kanika Kapoor, played by Bhumi Pednekar, has been eagerly waiting for her frog, aka Veer Pratap Singh, all her life. It is her 30th birthday when she turns into Rani from Queen and realises ‘uska toh itna life kharab ho gaya.’ She drops the bomb on her married best friends Pallavi, played by Dolly Singh, and Tina, played by Shibani Bedi, and reveals she never had an orgasm. On her 32nd birthday, Kanika finally gets a bikini wax as she gets a special message from Arjun, played by Karan Kundrra. However, she is disheartened to see Arjun with Rushi, played by Shehnaaz Gill. Kanika agrees to get a ‘tick mark’ in her life by marrying Jeevan, Pradhuman Singh Mal. But, is Jeevan the frog of her life?
-From Arjun to Rahul, played by Sushant Divgikar, to the professor, played by Anil Kapoor, Kanika invites all her exes to her engagement night. She puts her faith in vodka shots and finally gets the orgasm of her life. However, her memory takes a back seat and the story shifts to a conundrum. With the help of her BFFs, she embarks on the journey to find her frog who can be anyone including the rabri wala. In the backdrop, Tina’s teenage daughter Rabeya, played by Saloni Daini, explores her sexual desires and lands in trouble. 
-Written by Radhika Anand and Prashasti Singh, Thank You For Coming tries to tackle things that are twisted in Indian society, making the plot ho-hum. It is messily written with a series of forced fun moments and the performances range from mediocre to exaggerated. Though Bhumi Pednekar is a badass and relatable as Kanika, she fails to hit the spot. Dolly Singh, Shibani Bedi, and Shehnaaz Gill are their natural selves while Kusha Kapila’s less screentime is something I wasn’t rooting for given her presence during promotions. The beauty of the film lies in its small details like the ‘My Neck, My Back, My Anxiety Attack’ tee Bhumi wore in one of the scenes, the quintessential Punjabi Delhi wedding with a hint of peppy songs, and the 66-year-young Anil Kapoor, which pulls one out the boredom around finding the frog.
-Thank You For Coming tries to school society which sees women as the flagbearer of ‘sanskaar’. From objecting to sex or pregnancy before marriage to holding women responsible for atrocities against them, Karan Boolani’s film is like an avocado, which has an appealing texture but no taste. 
-Because how boring and blase it is, to compare women with men!
-The fictional Samantha Jones of Sex and the City once said, “The good ones screw you, the bad ones screw you…and the rest don’t know how to screw you.” That was New York, where discussing sexual pleasure, unabashedly at that, with your girlfriends wasn't frowned upon. But, hello! We are also the land of the Kama Sutra, where women are allegedly born with an ‘instruction manual’ and it took more than a few decades for Bollywood to voice what women want in bed. Karan Boolani’s Thank You For Coming is not the first Hindi film hollering loud about sex and orgasms. But, thankfully, it is more than just sex.For the film, Boolani brought Bhumi Pednekar, Shehnaaz Gill, Dolly Singh, Shibani Bedi, and Kusha Kapila together on screen. However, it is said too many cooks spoil the broth, the analogy applies to the film too. Too many fingers and thrusts but just no teeny, weeny orgasm.Kanika Kapoor, played by Bhumi Pednekar, has been eagerly waiting for her frog, aka Veer Pratap Singh, all her life. It is her 30th birthday when she turns into Rani from Queen and realises ‘uska toh itna life kharab ho gaya.’ She drops the bomb on her married best friends Pallavi, played by Dolly Singh, and Tina, played by Shibani Bedi, and reveals she never had an orgasm. On her 32nd birthday, Kanika finally gets a bikini wax as she gets a special message from Arjun, played by Karan Kundrra. However, she is disheartened to see Arjun with Rushi, played by Shehnaaz Gill. Kanika agrees to get a ‘tick mark’ in her life by marrying Jeevan, Pradhuman Singh Mal. But, is Jeevan the frog of her life?</t>
-  </si>
-  <si>
-    <t>movie-review</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/movie-review/thank-you-for-coming-review-bhumi-pednekar-film-is-all-very-changa-si-but-late-by-25-years-814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      OPINION | ED &amp; CBI: Fevicol for opposition unity    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aam Aadmi Party supremo Arvind Kejriwal got three bad news on Thursday. One, his close associate Sanjay Singh was sent to five-day custody of the Enforcement Directorate by a Delhi court, Two, the Aam Aadmi Party may be made an accused by ED in the Delhi liquor excise case, and Three, former Deputy CM Manish Sisodia, who has been in jail for last seven months, failed to get bail from Supreme Court. Despite Kejriwal’s claim that not a single rupee has been seized from the residences of any of his leaders, ED in its remand application before the court disclosed that accused businessman Dinesh Arora had given Rs two crore cash at the residence of Sanjay Singh in two tranches. Singh strongly rejected this allegation in court. ED’s remand application says, the cash was paid between August 2021 and April, 2022. ED has summoned two assistants of Sanjay Singh, Sarvesh Mishra and Vivek Tyagi in this connection. In the remand application, ED has said that Sanjay Singh received “proceeds of crime” to the tune of Rs 2 crore. It now appears that AAP wants to fight this corruption case on a political pitch, and in pursuance of this strategy, its workers staged protests on Thursday in Delhi, Chandigarh, Mumbai and Pune. On the other hand, constituent parties of the I.N.D.I.A opposition bloc has come forward to extend support to him. Congress leader Priyanka Gandhi Vadra, while addressing a rally in MP, alleged that ED is conducting raids and carrying out arrests only in non-BJP-ruled states. She alleged that ED never conducted raids in BJP-ruled Madhya Pradesh, where several scams have taken place. On Friday, Nationalist Congress Party chief Sharad Pawar met Congress president Mallikarjun Kharge and Congress leader Rahul Gandhi in Delhi to chalk out I.N.D.I.A opposition bloc’s next strategy. A day before, on Thursday, Pawar criticized Sanjay Singh’s arrest and accused the BJP of misusing agencies like CBI and ED to target the opposition. Pawar said, “I feel that when they can’t find anything against the opposition, they resort to misusing agencies like ED and CBI.” Pawar described Sanjay Singh as a “nice person” and condemned his arrest. He also mentioned how raids were carried out against Mamata Banerjee’s associates in West Bengal. He also mentioned how NCP leader and former Maharashtra Home Minister Anil Deshmukh was arrested and kept in jail for 13 months. He also mentioned how Shiv Sena (UBT) leader Sanjay Raut was arrested and kept in jail for eight months.  I find one of the observations made by Sharad Pawar interesting. He said opposition unity will now become stronger after raids by ED and CBI. “ED’s actions will act as Fevicol”, he said.  I had said this in my show ‘Aaj Ki Baat’ on Wednesday night. Pawar understands that parties which are part of I.N.D.I.A alliance may be having differences at local levels, but a middle path has to be found out. He feels this is the need of the hour. Pawar has said, while Left and Congress are against Mamata Banerjee and her party, Congress and AAP are at loggerheads in Delhi and Punjab. These quarrels, he thinks, should be kept confined to those states only, and there must be coordinated efforts so that all major opposition parties can at least contest next year’s Lok Sabha elections unitedly by fielding common candidates to defeat BJP. Sharad Pawar is an experienced and clever politician. He chooses his words carefully. When he said that forces like ED and CBI are acting as Fevicol to keep the INDIA alliance intact, he is conveying the message that the more the cases are filed, the stronger will be the bloc. Kejriwal is so much worried about CBI, and ED cases against his party leaders that he may now be ready to leave three out of seven Lok Sabha seats in Delhi for his rival party Congress. Overall, Congress, NCP, Aam Aadmi Party, Trinamool Congress, and RJD are parties, in which top leaders are facing corruption cases from CBI and ED. Some leaders are out on bail, while some others are in jail. Till now, leaders of these opposition parties have been admitting in private that they have joined hands on a common platform because of the cases that they are facing. Pawar has now publicly admitted this,  and it is now for Prime Minister Narendra Modi to pick it up. Modi has been saying consistently that the opposition bloc is actually an alliance of leaders neck-deep in corruption. Modi has been saying that it was his government which relentlessly carried out action against corruption, and this was the reason why opposition leaders have come together. Modi feels he can now go to the people with corruption as the main plank. This will help him to corral all the opposition parties on a single pitch. Modi’s speeches at his recent rallies are fairly indicative of this strategy.Aaj Ki Baat: Monday to Friday, 9:00 pmAdvertisement
+    <t>https://www.indiatvnews.com/news/india/unesco-world-heritage-list-sacred-ensembles-of-hoysalas-temples-inscribed-santiniketan-latest-updates-2023-09-18-893441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Return after 20 months! What chief selector Ajit Agarkar, Rohit Sharma said about R Ashwin's World Cup chances    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veteran Indian off-spinner Ravichandran Ashwin returned to the ODI side for the first time since January 2022. Ashwin, who hasn't been a regular on the white-ball side somehow gets into the probables before the World Cup. A similar thing happened in the last two T20 World Cups as well and this time Axar Patel's injury has meant that the 37-year-old has gotten in the reckoning once again.Washington Sundar was called up ahead of the Asia Cup final and even played the game while Ashwin is part of the squad for the three-match Australia series starting Friday, September 22 in Mohali. Speaking about Ashwin's return, skipper Rohit Sharma said that the motive behind selecting him for Australia ODIs was just to have a look at him, where he is at as far as his body is concerned if there is an emergency call-up during the World Cup.Speaking at the squad announcement press conference, Rohit said, "With guys like Ashwin, game-time and time on the ground is not so much of a concern. Which is why we thought if he is an option for us, we need to get him in. With the kind of experience he has, for guys like him, it's all in the head more than the body. I thought getting him in could give is a chance to understand where he is at, how his body is and stuff like that.Advertisement
  </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/news/india/ed-and-cbi-fevicol-for-opposition-unity-aam-aadmi-party-sanjay-singh-arrest-rajat-sharma-blogpost-opinion-2023-10-06-896533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Singapore experiencing another COVID-19 wave as daily cases reach 2,000: Health Minister    </t>
-  </si>
-  <si>
-    <t>Singaporean Health Minister Ong Ye Kung on Friday said that the country is experiencing another COVID-19 wave, as infections have risen from 1,000 three weeks ago to around 2,000 in the past two weeks.In an interview, Ong said that the recent COVID-19 cases in Singapore are being driven by the two variants - the EG.5 and its sub-lineage HK.3 - both descending from the Omicron variant of the virus. They are accounting for 75% of the daily cases in the country, he said."We will treat this as an endemic disease, which is in line with our strategy, and we will live with it... After all, there has been no evidence to suggest that the new variants are more likely to lead to severe illnesses compared to previous variants," he said.Although Ong said that there are no plans as of now to impose any social restrictions as Singapore did from March to April, he did warn against lowering its guard and complacency against COVID-19. "In the coming weeks, we should expect more people to fall sick, and if so, hospitalisations will go up. Waiting time will go up," said the Singaporean Health Minister.The findings of a study by the Ministry of Health (MOH) revealed the incidence rate of severe illness recorded during the peak of Singapore’s last infection wave in April. The "best protected" groups are those who have a minimum of three mRNA shits and a natural infection within the last 12 months.Advertisement
- The severe illness incidence rate in the "best protected" group is 10 per 100,000 people. On the other hand, the "least protected" groups include those who have no minimum protection and no recorded infection - thus, they are five times more vulnerable to the virus. The incidence rate here is 50 per 100,o00 people.Ong warned that protection against the virus might wane, which typically happens around the 12-month interval. He advised senior citizens or those who are medically vulnerable due to underlying illness to take the necessary precautions, such as wearing a mask in crowded areas.
-Advertisement
-"As I have said before, the COVID-19 virus has not become milder since the pandemic crisis. It is us who have gotten stronger and more resilient, and that is because of vaccinations as well as safe recovery from infections. But like all protection, it will wane over time," the Minister added.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/singapore-is-experiencing-another-covid-19-wave-as-daily-cases-rise-says-health-minister-precautions-latest-updates-2023-10-06-896531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Delhi's air quality index turns 'poor' ahead of festivities     </t>
-  </si>
-  <si>
-    <t>Delhi air quality: With the air quality index (AQI) in Delhi dropping to the 'poor' level today (October 6), authorities in the National Capital Region (NCR) have been asked to strictly implement measures under Stage 1 of the Graded Response Action Plan (GRAP) which include a complete ban on the use of coal in roadside eateries, hotels and restaurants. At a meeting on Friday, the Centre's sub-committee on GRAP noted that there has been a sudden dip in air quality parameters in the region in the last 24 hours which pushed Delhi's AQI to 212 (poor category). "It is considered necessary to invoke Stage-I of GRAP with immediate effect in the entire NCR in an effort to take steps to prevent further deterioration of air quality in the region," the Commission on Air Quality Management said in a statement.GRAP- a set of anti-air pollution measures followed in the Delhi-NCR region in the winter season- classifies actions under four different categories- Under the stage 1, authorities are also required to take penal and legal action against polluting industrial units.Delhi govt planning to deploy anti-smog guns:The Delhi government is planning to deploy 200 anti-smog guns this year as part of its anti-dust campaign which kicks off on October 9, officials said. The Public Works Department (PWD) has already started hiring anti-smog guns across various sub-divisions.Advertisement
- "There are around 19 sub-divisions under the PWD. They have floated tenders for procuring anti-smog guns as per their requirement. This year, we plan to deploy 200 anti-smog guns to address the problem of dust pollution. Last year, PWD had deployed 150 anti-smog guns," an official said.The process has already been completed in some sub-divisions, the official added.
-Advertisement
-"The smog guns shall normally be deployed from 9:00 am to 6:00 pm on all working days. They will be mounted on a CNG Truck BS-VI and the capacity of water tanker should not be less than 7000 litres. The vehicle should be equipped with front and back cameras and GPS system. It should be able to spray water up to a height of 50 metres," the official said.The official said the contractor has to supply the anti-smog guns on a regular basis.</t>
-  </si>
-  <si>
-    <t>delhi-air-quality-index-poor-aqi-high-pollution-level-pollutants-grap-categories-ncr-pollution-latest-updates-2023-10-06-896527</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/delhi/delhi-air-quality-index-poor-aqi-high-pollution-level-pollutants-grap-categories-ncr-pollution-latest-updates-2023-10-06-896527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Asian Games: Is China advertently trying to rob India of medals in Hangzhou? | Explained    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 19th edition of the Asian Games has transpired into a historic occasion for India in terms of medal output as the country has already scripted its all-time best performance in the history of the continental event.The Indian contingent participating in the 19th edition has produced a record-shattering effort to propel the country's medal tally to over 90 (and counting). However, this monumental journey has been an arduous one for the Indian athletes but certainly not in the way they would have imagined.From the Tokyo Olympic gold medallist and world champion javelin thrower Neeraj Chopra to India's emerging track and field athlete Jyothi Yarraji, several athletes have fallen prey to umpiring gaffes. While one or a couple of horrid judgements can be overlooked, a recurrent chain has brought the rectitude of the officials into question. These recurring events have also given rise to several voices, including some prominent ones alleging the intentional targeting of the Indian athletes by China - the host of the mega event. The incident that arguably gave rise to all these allegations was the disqualification of India's track and field athlete Jyothi Yarraji during her 100m hurdles final. During the event, China's Yanni Wu running in the adjacent lane to Jyothi got off to a false start and was staring at disqualification but appalingly the umpires officiating the event disqualified the Indian.Livid with the ruling, Jyothi held her nerve and protested which forced the officials to realise their blunder and they reinstated her. Jyothi finished in third place behind Wu but her bronze was eventually upgraded to silver. Wu took to the Chinese social media platform Weibo and apologised to Jyothi after the whole incident.While the incident involving Jyothi, was enough to garner numerous eyeballs, what followed afterwards put the cat among the pigeons and added more substance to all the widespread talks of China impeding India's way to glory. Olympic gold medallist and arguably India's strongest medal contender in an individual event in Hangzhou, Neeraj Chopra was also left flabbergasted when his first-ever throw in the men's javelin event which looked within touching distance of 87m was not measured.Advertisement
- Neeraj was left scratching his head after he learnt from the ones officiating that it wasn't recorded. The world champion chose to register a protest and was subsequently offered another opportunity to rethrow.Neeraj's compatriot and eventual silver medallist at the event, Kishore Jena had to suffer as well after his second attempt was declared a foul. Self-assured of his throw's legality, Kishore protested too and was joined by Neeraj. It soon bore fruit and led to a change in the judgement and the decision was reversed.
-Advertisement
-In the end, Neeraj bagged gold and Kishore claimed silver to finish the event on a high despite the obstacles that came their way.The list isn't limited to these three incidents. It also involves javelin thrower Annu Rani, Manju Rani (race walk) and Murali Sreeshankar (long jump). All these athletes encountered major hiccups during their respective events but still went on to claim medals for the country. While Annu clinched gold in the women's javelin throw event, Manju Rani claimed bronze alongside Ram Baboo in the 35km race walk mixed team event and Murali won silver in the men's long jump category. </t>
-  </si>
-  <si>
-    <t>asian-games-is-china-advertently-trying-to-rob-india-of-medals-in-hangzhou-explained-2023-10-06-896522</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/explainers/asian-games-is-china-advertently-trying-to-rob-india-of-medals-in-hangzhou-explained-2023-10-06-896522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Mastering Flipkart Big billion Day Sale 2023 &amp; Amazon sale: 'Your Ultimate Guide to Smart Shopping Strategies'    </t>
-  </si>
-  <si>
-    <t>In India, festivities go hand in hand with shopping, and what better way to celebrate than by indulging in the grand sales of Flipkart's Big Billion Day and Amazon's Great Indian Sale? These sales have become a national tradition, offering unbeatable discounts on a wide range of products, just in time for major festivals like Diwali and Durga Puja. However, with so many products and deals to choose from, it's easy to feel overwhelmed. Enter the Buyhatke Chrome Extension - a game-changer that ensures you make the most out of these sales, not just by comparing prices but also by unlocking exclusive discounts and tracking price fluctuations._x000D_
-It's like having your very own personal shopping assistant who scouts the internet to find the best deals for you.One of the key advantages of this extension is its ability to save you both time and money. You no longer need to open multiple tabs to compare prices manually; Buyhatke does it for you instantly. With a few clicks, you can see which platform offers the lowest price for your desired product, making it easier to snag the best deal during these mega sales events.Unlocking Exclusive Discounts- One of the Star features What truly sets the Buyhatke Chrome Extension apart is its ability to generate auto coupons that can lead to additional savings. While Flipkart and Amazon offer competitive prices during their flagship sales, they rarely provide exclusive coupons for their products. This is where Buyhatke shines. By using this extension, you can uncover hidden discounts that aren't readily available on the e-commerce giants' websites.Imagine purchasing your favorite electronics, fashion, or home appliances at an even lower price than advertised. Buyhatke scans the web for coupon codes and applies them automatically at checkout, ensuring you get the best possible deal. This feature is especially valuable during Big Billion Day and the Great Indian Sale when every rupee counts.Advertisement
- Tracking Price Fluctuations_x000D_
-Price fluctuations are common during major sales events, and sometimes it's challenging to determine whether you're getting a true bargain or not. This is where Buyhake proves invaluable once again. The extension not only helps you compare current prices but also provides historical data, including the all-time high and all-time low prices of a product.</t>
-  </si>
-  <si>
-    <t>pr-release</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/brand-content/pr-release/mastering-flipkart-big-billion-day-sale-2023-and-amazon-sale-your-ultimate-guide-to-smart-shopping-strategies-2023-10-06-896514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      World Cerebral Palsy Day 2023: Seven myths and facts related to the congenital disorder     </t>
-  </si>
-  <si>
-    <t>Despite being a prevalent childhood congenital disorder worldwide, cerebral palsy (CP) is frequently misunderstood, leading to numerous misconceptions and misinformation. Consequently, families grappling with a CP diagnosis often face unnecessary stress due to these falsehoods. In the below article, Dr Chhya Vaja, Internal Medicine Expert, at Apollo Spectra Mumbai, has busted some myths surrounding cerebral palsy.Cerebral palsy (CP)  is a prevalent physical disability in childhood, encompassing a range of disorders that hinder movement and posture. Typically, it arises from brain damage occurring in utero or shortly after delivery. Cerebral pertains to the brain, while palsy signifies impaired muscle control. Children and adults experience this complex condition differently, with varying degrees of severity. Despite being a permanent condition, it does not worsen over time, and individuals with CP can lead normal and healthy lives through effective management. However, there is still a lack of awareness regarding this condition. Apart from this, there are also certain myths associated with this condition.Myth #1: Those with cerebral palsy are intellectually disabled.Fact: Cerebral palsy primarily impacts movement and posture, and only a few with the condition have an intellectual disability. The severity of intellectual disability can vary from mild to severe.Myth #2: People with cerebral palsy are unable to communicate verbally.Fact: Only some people with cerebral palsy are unable to speak. However, this does not mean they cannot communicate effectively. Through methods such as arranging pictures in books or utilizing eye-gaze control technology, people living with cerebral palsy can convey their needs and desires.Myth #3: Those with cerebral palsy have shorter lifespans.Fact: Most people with cerebral palsy are healthy and can expect to live as long as the average person in the general population.Advertisement
- Myth #4: Children with cerebral palsy have a poor quality of life.Fact: The majority of children with cerebral palsy are healthy and lead fulfilling lives.
-Advertisement
-Myth #5: People with cerebral palsy cannot have children.Fact: There is no evidence confirming that cerebral palsy affects fertility. Additionally, since it is not considered hereditary, the likelihood of a woman with cerebral palsy having a child also affected by the condition is no different from that of any other individual.Myth #6: Cerebral palsy worsens over time.Fact: It is a common misconception that cerebral palsy deteriorates as one ages. However, the truth is that while the condition itself remains permanent, its severity does not escalate with time. Nonetheless, similar to anyone growing older, those with cerebral palsy may experience age-related symptoms like heightened muscle rigidity and other typical issues associated with ageing.</t>
-  </si>
-  <si>
-    <t>world-cerebral-palsy-day-2023-seven-myths-and-facts-related-to-the-congenital-disorder-2023-10-06-896544</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/health/world-cerebral-palsy-day-2023-seven-myths-and-facts-related-to-the-congenital-disorder-2023-10-06-896544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      NMC reverses decision on 40 percent passing marks for MBBS subjects with two papers    </t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/news/nmc-reverses-decision-on-40-percent-passing-marks-for-mbbs-subjects-with-two-papers-2023-10-06-896543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'Cool to have Indian roots' - Rising Kiwi star Rachin Ravindra shares his feelings about Indian origin     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachin Ravindra revealed his proud connection with Indian roots after his sensational hundred against England in the ICC World Cup 2023 opener on Thursday, October 5. New Zealand beat champions England at Ahmedabad's Narendra Modi and Rachin Ravindra bagged Player of the Match award for his 123* off 82 balls knock. The 23-year-old batting all-rounder batted in the no.3 position in the absence of captain Kane Williamson and smashed his maiden ODI hundred in his very first World Cup game. His parents were born in India and his grandparents live in Bengaluru. Rachin is named after two Indian greats Sachin Tendulkar and Rahul Dravid and hailed both cricketers after his special knock in Ahmedabad.Rachin revealed the influence Sachin and Rahul have on his parents and added that he idolises the former. Advertisement
+    <t>https://www.indiatvnews.com/sports/cricket/return-after-20-months-what-chief-selector-ajit-agarkar-rohit-sharma-said-about-r-ashwin-s-world-cup-chances-2023-09-18-893476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Women's Reservation Bill: Why is this quota needed? Know about benefits and challenges | EXPLAINED    </t>
+  </si>
+  <si>
+    <t>The Women's Reservation Bill is once again in the news amid a special session of Parliament. Some regional parties and Congress MPs pressed the demand for the passage of the bill in Parliament during an all-party meeting held on Sunday. They demand the bill to be passed in the new Parliament building during the special session. However, the government made no official reaction to their demand.What is the Women's Reservation Bill?_x000D_
+The bill seeks to reserve one-third of all seats for women in the Lok Sabha and state legislative assemblies. Women MPs account for less than 15 per cent of Lok Sabha strength while their representation is below 10 per cent in many state assemblies, data shows amid a renewed push for the women reservation bill pending for nearly 27 years. The bill was initially introduced in the parliament on September 12, 1996.Who all are in support?_x000D_
+Virtually or in spirit, all parties are in support of the bill yet no concrete action has been taken in the last 13 years to materialise the proposal. Congress leader Adhir Ranjan Chowdhury after the meeting  said, "All opposition parties demanded the passage of women's reservation bill in this Parliament session."  BJP ally and NCP leader Praful Patel said, "We appeal to the government to pass the women's reservation bill in this Parliament session." Several regional parties including the BJD and the BRS also pushed for tabling of the bill. BJD MP Pinaki Misra said a new era should begin from the new Parliament building and the women's reservation bill should be passed.BRS leader Kavitha has been a prominent voice in renewing the demand for the passage of the bill in the parliament. In fact, she sat on a hunger strike and held agitation with leaders from other political parties and civil society organisations across India in March 2023. Current status of the bill_x000D_
+The last concrete development on the issue was in 2010 when Rajya Sabha passed the bill amid a ruckus with marshals escorting out some MPs who opposed the move to reserve 33 per cent seats for women in Lok Sabha and state assemblies, but the bill lapsed as it could not be passed by Lok Sabha.The biggest barrier - quota within quota_x000D_
+Some regional parties demand quota for backward classes and Scheduled Castes within the overall reservation for women. This has been a key sticking point in the passage of the bill earlier. According to a write-up available on PRS Legislative, it also proposed quota-within-quota for SCs, STs and Anglo-Indians, while reserved seats were to be rotated after each general election. It meant that after a cycle of three elections, all constituencies would have been reserved once. The reservation was to be operational for 15 years.Earlier, Lalu Prasad Yadav-led RJD, Nitish Kumar's JD-U and Mulayam Singh Yadav's Samajwadi Party (SP) opposed the draft of the bill as they demanded quota within quota for the backward class when the bill was tabled back in 2008 and 2010. However now, the stand of these regional parties has been softened over the years and now leaders of these parties become frontiers who are advocating the quota for women. Recommendations for the billTwo of the recommendations - the first was for reserving seats in Rajya Sabha and Legislative Councils and the second was for sub-reservation for OBC women after the Constitution extends reservation to OBCs were not incorporated in the 2008 Bill.  The 2008 Bill was referred to the Standing Committee on Law and Justice, but it failed to reach a consensus in its final report. The Committee recommended that the Bill “be passed in Parliament and put in action without further delay".Advertisement
+ Two members of the Committee, Virender Bhatia and Shailendra Kumar (both belonging to the Samajwadi Party) dissented stating that they were not against providing reservation to women but disagreed with the way this Bill was drafted. They had recommended that every political party must distribute 20 per cent of its tickets to women, the reservation should not exceed 20 per cent of seats and there should be a quota for women belonging to OBCs and minorities. The standing committee also considered other methods of increasing representation. One suggestion was to ask political parties to nominate women for a minimum percentage of seats, but the committee felt that parties could bypass the spirit of the law by nominating women to seats where there were prospects of loss. Another recommendation was to create dual-member constituencies, with women filling one of the two seats from those constituencies.Why the bill is needed?
+Advertisement
+The representation of half of the population in the parliament and state assembly is not up to the mark. In the present Lok Sabha, 78 women members were elected which account for less than 15 per cent of the total strength of 543.In Rajya Sabha too, women's representation is about 14 per cent, according to the data shared by the government with Parliament last December.Several state assemblies have less than 10 per cent women representation, including Andhra Pradesh, Arunachal Pradesh, Assam, Goa, Gujarat, Himachal Pradesh, Karnataka, Kerala, Madhya Pradesh, Maharashtra, Manipur, Meghalaya, Odisha, Sikkim, Tamil Nadu, Telangana, Tripura and Puducherry.Bihar, Haryana, Punjab, Rajasthan, Uttrakhand, Uttar Pradesh and Delhi had 10-12 per cent women MLAs, according to the government data of December 2022. Chattisgarh, West Bengal and Jharkhand led the charts with 14.44 per cent, 13.7 per cent and 12.35 per cent women MLAs, respectively.Last discussion on the bill in Parliament_x000D_
+While it remains to be seen what percentage of reservation can be proposed in a new bill, the 2008 Bill, which was passed in Rajya Sabha in 2010 before it lapsed following the dissolution of Lok Sabha, proposed reserving one-third of all seats in Lok Sabha and legislative assemblies in each state for women. The UPA was in power when the last attempt was made to pass the bill.</t>
+  </si>
+  <si>
+    <t>womens-reservation-bill-why-is-the-quota-needed-barriers-and-vision-explained-parliament-special-session-2023-09-18-893398</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/explainers/womens-reservation-bill-why-is-the-quota-needed-barriers-and-vision-explained-parliament-special-session-2023-09-18-893398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      GST, Article 370 and OROP: PM Modi remembers key decisions during Parliament Special Session    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parliament Special Session: Prime Minister Narendra Modi on Monday remembered the historic decisions like the abrogation of Article 370 in Jammu and Kashmir, Goods and Services Tax (GST) and One Rank One Pension (OROP) taken by the Parliament, in the old building, while reflecting on the history and significance that the House holds. PM Modi was addressing the Lok Sabha on Monday on the first day of the five-day Special Session of Parliament. He said that with the mantra of 'Sabka Saath, Sabka Vikas', several historic decisions on issues pending for decades, their permanent resolution has been found in this Parliament. "Several historic decisions and solutions to issues pending for several decades were made in this House. The House will always say proudly that (abrogation of) Article 370 became possible due to it. GST was also passed here. One Rank One Pension was witnessed by this House. 10 per cent reservation for the Economically Weaker Section was successfully allowed in the country for the first time without any dispute," said the Prime Minister.PM Modi further said that this House also witnessed a 'cash-for-votes' scam during the tenure of Prime Minister Manmohan Singh.Article 370: On August 5, 2019, the Centre abrogated Article 370 granting special status to Jammu and Kashmir and bifurcated the erstwhile state into two Union Territories – Jammu and Kashmir and Ladakh.Advertisement
+ GST: In a special midnight session of Parliament on June 30, 2017, President Pranab Mukherjee and Prime Minister Narendra Modi launched India’s biggest tax reform from the historic central hall of Parliament. With the stroke of the gong, tax rates were replaced by GST rates.One Rank One Pension: The government took a historic decision to implement OROP for the Defence Forces Personnel and family pensioners in 2015. The OROP "implies that uniform pension be paid to the Armed Forces Personnel retiring in the same rank with the same length of service irrespective of their date of retirement and any future enhancement in the rates of pension to be automatically passed on to the past pensioners."
+Advertisement
+Triple Talaq: The Triple Talaq Bill was passed in Lok Sabha on July 25, 2019. The Muslim Women (Protection of Rights on Marriage) Bill, 2019 was passed with the most number of voice votes in favour of the legislation. The Government led by Prime Minister Narendra Modi made the law against Triple Talaq to make effective the Supreme Court’s judgement. The Supreme Court, on May 18, 2017, had declared Triple Talaq as unconstitutional. </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/parliament-special-session-pm-modi-speech-remembers-key-decisions-gst-article-370-orop-latest-updates-2023-09-18-893338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      What will happen to old parliament building now | EXPLAINED    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stage is set for the beginning of the proceeding of the parliamentary session in the new building of the Parliament in New Delhi. The Rajya Sabha and the Lok Sabha were adjourned in the old building concluding the last session in the old building today and MPs will meet again on Tuesday afternoon in the new Parliament building.While the Rajya Sabha will meet at 2:15 pm in the Upper House chamber of the new Parliament building on Tuesday, the Lok Sabha will meet at 1:15 pm in the Lower House chamber of the newly-constructed complex.On Monday, the members of both Houses held a discussion on "Parliamentary Journey of 75 years starting from Samvidhan Sabha -- Achievements, Experiences, Memories and Learnings".Speaking before adjourning the day's proceedings in the Lok Sabha, Birla said a "constructive discussion" took place on the last day of the proceedings in this historic and prestigious chamber. Prime Minister Narendra Modi and other MPs also recalled historical moments of the old building. _x000D_
+Now, the question arises about the future of the old parliament building.Advertisement
+ Housing and Urban Affairs Minister Hardeep Singh Puri told the Rajya Sabha in March 2021, that the existing one (parliament) will have to be repaired and made available for 'alternate use'. However, he made no clarity on what could be the alternate use.Media reports suggest that the old parliament building is likely to be conserved as a historical democratic monument and a part of the building might be converted into a museum. 
+Advertisement
+</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/what-will-happen-to-old-parliament-building-now-explained-2023-09-18-893451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      First-of-its-Kind Initiative by Seven Esteemed Ganpati Mandalas in Pune    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seven Ganpati Mandalas from Pune have joined forces to organise an idol donation ceremony for the "Ganpatyar Temple" in Kashmir to commemorate Ganesh Utsav. As a result of this event, Kashmir will hold a one-and-a-half-day Ganesh Utsav this year. Mr Punit Balan, trustee and festival director of the Shrimant Bhau Saheb Rangari Trust, expressed the belief that the Ganesh festival would bring happiness, prosperity, and peace to the Kashmir region.This year, the Shrimant Bhau Saheb Rangari Ganpati Trust, along with six other Ganpati Mandalas from Pune, has decided to hold a public Ganesh Utsav in Kashmir. As a result, Sandeep Kaul and Shishant Chako of Srinagar's Ganpatiyar Temple were given a replica of Bappa, the village deity of Pune's Kasba Ganpati Mandal. Ganesh Utsav will be held in Kashmir for one and a half days this year. This noble endeavour was initiated by seven Mandalas, including Kasba Ganpati Mandal, Tambadi Jogeshwari Ganpati Mandal, Guruji Talim Ganpati Mandal, Tulshi Baug Ganpati Mandal, Kesariwada Ganpati Mandal, Shrimant Bhau Saheb Rangari Ganpati Mandal, and Akhil Mandai Mandal. On Thursday, they all came together to donate the idol to Kashmir. The Shrimant Bhau Saheb Rangari Ganpati Trust enthusiastically organised the event. Previously, the Abhedya Dhol Tasha team performed admirably.On this occasion, dignitaries such as the trustee of the Shrimant Bhau Saheb Rangari Trust, festival head Punit Balan, the trust's chairman Sanjeev Javale, the president of Kasba Ganesh Mandal Shrikant Shete, the president of Tambadi Jogeshwari Mandal Prasad Kulkarni, the president of Guruji Talim Mandal Praveen Pardeshi, the treasurer of Tulshi Baug Public Ganeshotsav Mandal Nitin Pandit, the representative of Kesari Ganeshotsav Anil Sakpal, the chairman of the Akhil Mandai Mandal Anna Thorat, and other officials were present. On this occasion, Shrikant Shete stated, "Kashmir is heaven on Earth, and Bappa's blessings are here to enhance happiness and prosperity." This idol was given to us as a gift from Bappa, and we are giving it to contribute to a more advanced, prosperous, peaceful, and happy Kashmir."Advertisement
  </t>
   </si>
   <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/cool-to-have-indian-roots-rising-kiwi-star-rachin-ravindra-shares-his-feelings-about-indian-origin-2023-10-06-896535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Another Philippines-China tussle! Manila protests after Chinese ship nearly collides with Filipino vessel    </t>
-  </si>
-  <si>
-    <t>Tensions between the Philippines and China flared up again at the disputed South China Sea after a Chinese coast guard ship almost collided with a Filipino patrol vessel as the former was trying to block it, intensifying fears of a larger crisis over territorial disputes in the waters.Philippines Coast Guard (PCG) spokesperson Jay Tarriela condemned the Chinese ship's dangerous maneuver near the Second Thomas Shoal - claimed both by China and the Philippines - saying that the Chinese vessel came within a metre of the Philippine vessel."A total of five (5) Chinese Maritime Militia (CMM) vessels once again actively assisted the CCG (Chinese Coast Guard) in blocking our PCG vessels...A total of 4 CCG vessels were dispatched to obstruct the resupply mission, and they were actively assisted by 5 CMM vessels," he said, again accusing China of violating international law.One PCG vessel was blocked and surrounded by Chinese coast guard and militia ships in the incident that dragged on for around eight hours on Wednesday. Two smaller supply boats managed to breach the Chinese blockade and delivered food and other supplies to a Filipino marine outpost at the shoal.The Philippine vessel BRP SINDANGAN, which had to rapidly reverse its engine to avoid slamming into the Chinese ship, was “the closest dangerous maneuver” by any CCG ship, said Tarriela. The incident was witnessed by several journalists.On Wednesday, several CCG and militia ships, including at least one navy warship, later emerged and formed a blockade in the high seas off the shoal. A Chinese radio operator asserted to the Philippines vessels that Beijing has "indisputable sovereignty" over the Second Thomas Shoal and outlying waters. "To avoid miscalculations, leave and keep out," the operator said.In response, the PCG asserted Philippine rights to the area and said they would proceed with the delivery of the supplies. "China firmly opposes the Philippines illegally transporting building materials to the grounded' military boat. It said it gave a stern warning to the Philippine vessels and monitored them throughout the process," said the CCG in a statement on Wednesday.This marks yet another flare-up in long-simmering territorial disputes between the Philippines and China in the South China Sea, one of the world's busiest trade routes. China has reportedly surrounded the Second Thomas Shoal with coast guard ships and militia vessels to prevent the Philippines from delivering materials or supplies to reinforce the long-marooned BRP Sierra Madre there.Last week, a 300 m-long floating barrier installed by China was removed at his command near the Bajo de Masinloc (BDM) shoal, also called the Scarborough Shoal. The Philippines strongly protested against this action and removed it the next day. The PCG said that Chinese vessels usually install floating barriers whenever they monitor a large number of Filipino fishermen in the area.Last week, a Philippine BFAR ship and at least 54 Filipino fishing boats were ordered by four Chinese ships by radio to leave the territory, alleging that they were breaching Chinese and international law. The Philippines said that it was a routine patrol.Advertisement
- Philippines' claim over the 200-mile Scarborough Shoal lies was upheld by an arbitration decision in 2016 under the 1982 UN Convention on the Law of the Sea. However, China refused to recognise the 2016 arbitration ruling amid tense standoffs in the region.Chinese coast guard ships have also blocked Filipino government vessels delivering supplies and personnel to the Philippine-occupied Second Thomas Shoal, resulting in near-collisions that the Philippine government has condemned and protested.
-Advertisement
-In August, the Chinese Coast Guard allegedly used a water cannon to block a Filipino supply boat from delivering a new batch of troops, food, water and fuel to the Second Thomas Shoal in the disputed waters.China's aggression in the South China Sea has put it in conflict with many Asian countries. A major clash can also involve the United States, which has vowed to defend the Philippines if any Filipino forces, ships and aircraft are attacked.In response to the US warning in August, the Chinese Foreign Ministry accused Washington of “threatening China” by raising the possibility of activating the US-Philippine mutual defence treaty. Beijing has repeatedly warned the US not to meddle in regional territorial disputes.China claims ownership over virtually the entire strategic waterway despite international rulings that invalidated Beijing's vast territorial claims, such as that in 2016 by the Permanent Court of Arbitration, an international body based in The Hague. China rejected that ruling.China's unsubstantiated claims have put it at odds with the Philippines, Vietnam, Malaysia, Brunei and Taiwan and the situation has been regarded as an Asian flashpoint. Meanwhile, Philippines President Ferdinand Marcos Jr vowed to defend the country's waters against Chinese aggression last Friday. "We're not looking for trouble but what we'll do is to continue defending the maritime territory of the Philippines and the rights of our fishermen, who have been fishing in those areas for hundreds of years," he said.The Philippines' repeated confrontations with Beijing over the disputed South China Sea have also been compounded by Marcos' decision to allow the expansion of US military presence under a defence pact in 2014, infuriating Chinese authorities.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/philippines-china-tussle-manila-protests-after-chinese-ship-nearly-collides-with-its-vessel-south-china-sea-dispute-latest-updates-2023-10-06-896541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      BJP to decimate Hemant Soren-Congress alliance in Jharkhand: India TV-CNX Opinion Poll    </t>
-  </si>
-  <si>
-    <t>The BJP is likely to repeat its 2019 show in the next year’s general elections in Jharkhand as the saffron party, according to India TV-CNX Opinion Poll on Friday (October 6), is predicted to win 12 Lok Sabha seats while its ally AJSU is expected to win one seat.Chief Minister Hemant Soren-led Jharkhand Mukti Morcha is likely to win just one seat next year, therefore, suffering a huge decimation by the BJP.As far as the vote percentage is concerned, as per the India TV-CNX Opinion Poll, BJP is expected to get 53% of votes in Jharkhand, Congress is likely to get 17% of votes.India TV-CNX Opinion Poll: Hemant Soren-led Jharkhand Mukti Morcha (JMM) is predicted to get just 13% of votes in Jharkhand.Advertisement
- In the 2019 Lok Sabha polls, the NDA alliance had won 12 seats, out of which the BJP had registered victory on 11 seats. BJP’s ally AJSU had won one seat last time also.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/india-tv-cnx-opinion-poll-bjp-ajsu-jmm-congress-nda-hemant-soren-jharkhand-opinion-poll-prediction-2024-lok-sabha-polls-latest-updates-2023-10-06-896539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Naomi Campbell's 40-year career wardrobe to be exhibited at London's famous V &amp; A museum    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's Official! Naomi Campbell’s 40-year fashion career is going to be celebrated in a special exhibition at the Victoria and Albert Museum in London. The exhibition, which will open on June 22, 2024, and will run until April 6, 2023, will be an ode to the iconic supermodel’s illustrious career, which has seen her walk countless runways, grace magazine covers and collaborate with some of the biggest names in fashion.The exhibition will look back at Campbell’s four decades of fashion success, from her early beginnings as a teenage model in London to her current status as one of the world’s most recognizable faces. It will feature a range of items from her personal archive, including iconic magazine covers, looks from some of her most memorable runway shows, and over 100 of her clothing from major designer collaborations.One of the highlights of the exhibition will be a special section dedicated to Campbell’s work as a runway model. It will feature looks from some of the most historic shows she has ever walked.Elated Campbell took to her Instagram to share the post, she wrote, "I'm HONOURED to be asked by the V&amp;A to share my life in clothes with the world. The V&amp;A's fashion collection is one of the largest collections in the world, and it is a blessing to work with them to share my story. The exhibition NAOMI will take place from 22 June 2024 to 6 April 2025. Love, Light and #Culture @vamuseum @marco.bahler wearing #sarahburton." Advertisement
+    <t>https://www.indiatvnews.com/brand-content/news/first-of-its-kind-initiative-by-seven-esteemed-ganpati-mandalas-in-pune-ganesh-utsav-shrimant-bhau-saheb-rangari-ganpati-trust-2023-09-18-893368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Chhattisgarh: Congress MLA's video with bundles of cash sparks controversy | VIDEO    </t>
+  </si>
+  <si>
+    <t>A video featuring a Congress MLA from Chhattisgarh sitting in front of stacks of cash has ignited a political dispute, with the BJP leveling allegations of "corruption" within the state. Meanwhile, the concerned legislator has defended himself, asserting that it's a conspiracy to tarnish his reputation. Chhattisgarh BJP's General Secretary, OP Choudhary, shared the video on his social media account, alleging that the Congress has turned Chhattisgarh into a hub of corruption.In the video, MLA Ramkumar Yadav can be seen seated on a sofa beside a bed where bundles of cash are laid out. Another individual accompanies Yadav, while the third person sitting beside the cash remains unidentified.Choudhary posted on X, "Will Congress accept this video in which bundles of notes are placed in front of its MLA or if it has any doubt over the video, will it show the courage to hand over the matter to CBI for investigation?"He questioned Yadav's claims of being poor and residing in a house under the Pradhan Mantri Awas Yojana. Choudhary said that Yadav's family, spanning generations, had been cattle herders. However, he pointed to the viral video, stating that it contradicted Yadav's assertions.Choudhary accused Congress members of looting Chhattisgarh over five years, alleging a culture of corruption and a "Mafia Raj" in various sectors, including fly ash, sand, coal, and liquor.Advertisement
+ During a press conference, Choudhary called on Chief Minister Bhupesh Baghel to acknowledge the "truth" presented in the video and take action against the MLA.Yadav responded, dismissing the video as a conspiracy by some "feudalists" who cannot accept a person from a humble background rising to become an MLA.
+Advertisement
+He explained, "Those who have posted this video only can tell its objective. Neither I am looking at the money nor was my attention towards it. I was just sitting there and something was being told to me. It seems it was posted just to malign my image as I come from a poor family."</t>
+  </si>
+  <si>
+    <t>chhattisgarh-congress-mla-ramkumar-yadav-viral-video-bundles-of-cash-sparks-controversy-bjp-social-media-corruption-2023-09-18-893481</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/chhattisgarh/chhattisgarh-congress-mla-ramkumar-yadav-viral-video-bundles-of-cash-sparks-controversy-bjp-social-media-corruption-2023-09-18-893481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      G20: Multi-institutional collaborations in academics, research, deepened relationship between India-US    </t>
+  </si>
+  <si>
+    <t>With multi-institutional collaborations in academics and research, India-USA collaborations have deepened in the education sector. A bilateral meeting between Prime Minister Narendra Modi and US President Joe Biden during the G20 summit led to the announcement of the India-US Global Challenges Institute, which will concentrate on extensive student and faculty exchanges in addition to joint research and development in critical technologies by institutions of the two countries. This will be the first cooperation of its sort for development. Both seek to create a productive research ecosystem between the US and India. The signing of a Memorandum of Understanding (MoU) between the Council of Indian Institutes of Technology (IIT), which represents Indian universities and the Association of American Universities (AAU) from the USA to establish the India-US Global Challenges Institute, pledging a joint initial investment of at least 10 million US dollars.</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/education/news/g20-multi-institutional-collaborations-in-academics-research-deepened-relationship-between-india-usa-2023-09-18-893479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      FACT CHECK: Viral video falsely claims PM Modi supported opposition's I.N.D.I.A bloc | Know more    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An old video featuring Prime Minister Narendra Modi has been circulating online with a false claim that he expressed support for the opposition's recently formed 'I.N.D.I.A' bloc. However, India TV's Fact Check team has confirmed that the video dates back to 2013, when Modi served as the Chief Minister of Gujarat, and in it, he was referring to India as a nation, not the opposition's alliance.The 'I.N.D.I.A' bloc, composed of 26 opposition parties, including the Indian National Congress (INC), the Aam Aadmi Party (AAP), and the All India Trinamool Congress, was established in July. This united front was created to challenge the Bhartiya Janata Party-led National Democratic Alliance (NDA) in the upcoming 2024 general elections. The alliance's full name is the Indian National Developmental Inclusive Alliance (I.N.D.I.A). The misleading connection between the old video of PM Modi and the opposition alliance's name has led to this false claim.In the video, Modi can be seen asking the audience to cheer for India if they desire freedom from poverty, nepotism, corruption, and aspire to build a nation that prioritizes development, national security, and unity. A caption accompanying the video on Facebook reads, "Thank u Modi ji sure we vote for India in 2024.... we love you we need change....."Image Source : INDIA TVFalse claim made by a social media userThe India TV Fact Check team conducted a thorough investigation and confirmed that the video is indeed from 2013, featuring PM Modi as the Chief Minister of Gujarat, expressing his dedication to the country. A Facebook post shared an Aaj Tak news clip that included text like 'Narendra Modi, CM, Gujarat' and 'Modi's Maha Garjana Rally' in Hindi.Advertisement
+ Building on this information, the team conducted a keyword search for old videos of Modi during his tenure as Gujarat's CM at the 'Maha Garjana Rally' in Mumbai. They found the full speech uploaded on his official YouTube channel, dated December 22, 2013.
+Advertisement
 </t>
   </si>
   <si>
-    <t>fashion</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/lifestyle/fashion/naomi-campbell-s-40-year-career-wardrobe-to-be-exhibited-at-london-s-famous-v-a-museum-2023-10-06-896538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Actor Imran Khan makes SHOCKING revelations about his body, says 'took steroids to...'    </t>
-  </si>
-  <si>
-    <t>After disappearing from showbiz for years, Imran Khan is now interacting with his fans on social media. The former actor, who is said to make a comeback to Bollywood, recently opened up about his body image issues and admitted taking steroids to bulk up. He also shared about struggles with being an actor.In a lengthy post on Instagram, Imran Khan wrote, "I've always been skinny. I'm one of those hyper-metabolic people, my body just burns through whatever I consume. Oh no, what a terrible affliction! In my late teens, guys around me started joining gyms and working out. They started to expand, their biceps stretching the sleeves of their t-shirts. I wore a size S, and my sleeves were still loose."Speaking about his character Jai Singh Rathore, Khan said he was too skinny and had to hit the gym for his character in Kidnap. "I didn't need to be muscular to play Jai Singh Rathore... but I was convinced that I was too skinny, which is why Jai mostly wears two layers of clothing throughout Jaane Tu. For my next film, Kidnap, I hit the gym in earnest, and began my journey with bodybuilding."Sharing his lifestyle, Khan revealed that he worked out regularly but people still called him weak and a little boy. "Over the next few years, the sculpting and maintenance of my body became part of my lifestyle. I worked out regularly, but still, I would hear "So... you'll bulk up a bit before we start shooting, right?"; "You're looking weak", "You look like a little boy, not a man", and "The heroine looks bigger than you" (ouch for both of us!)."Advertisement
- Imran Khan further made shocking revelations and said he battled depression and became skinnier. His photos often triggered rumours about his wellbeing and his taking drugs. "When I was photographed, it sparked a media discussion about my wellbeing, and speculations of drug abuse! I felt deeply ashamed, embarrassed to be seen by anyone in this state. So I retreated further," Khan said.</t>
+    <t>fact-check-viral-video-falsely-claims-pm-modi-supported-opposition-india-bloc-congress-aap-former-gujarat-cm-bjp-2023-09-18-893478</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/fact-check/fact-check-viral-video-falsely-claims-pm-modi-supported-opposition-india-bloc-congress-aap-former-gujarat-cm-bjp-2023-09-18-893478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Nayanthara shares romantic pictures with husband Vignesh Shivan on his birthday, see pics    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayanthara, who recently made her debut on Instagram, shared a special one for her husband Vignesh Shivan's birthday on Monday. The actress shared three romantic pictures of themselves having blissful time with each other in their balcony. Along with the pictures, she even penned down a long note for Vignesh, expressing her love for him. 
+Also Read: Dhanush attends assistant's wedding in casual jeans and cap, poses with newlywedsIn the caption, Nayanthara wrote, ''Happyyy birthday my blessing. There’s so much that I wanna write about you on this special day but if I start then I don’t think I can stop at JUST a few things !! I am so grateful to you for the Love, u shower on me !! Am so grateful for the respect u have for our relationship !! Am so grateful for everything that you are to me. There’s NO ONE LIKE YOU !! Thank you for coming into my life n making it soooo dreamy ,meaningful n beautiful !! You are the besttttt at everything you do !! With alllllll my heart n soul ,I wish my uyir the bestesttt of everything in life. May Every Dream of urs come true n May God blessss u with all the happiness in the world. I LOVE YOU.''Advertisement
+</t>
   </si>
   <si>
     <t>celebrities</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/entertainment/celebrities/actor-imran-khan-makes-shocking-revelations-about-his-body-steroids-depression-2023-10-06-896537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Chhattisgarh Police Recruitment 2023: Notification out for 6,000 Constable posts, Apply from October 20    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhattisgarh Police Constable Vacancy 2023: The Chhattisgarh Police has issued recruitment noitification for Chhattisgarh  Police Constable Vacancy 2023. A total of 6,000 vacancies of Police Constable posts are to be filled through this recruitment notification. The application process will commence on October 20 and will conclude on November 30, 2023.Aspiring candidates can fill the online application form for the Chhattisgarh Police Constable Recruitment 2023 through the official website-- cgpolice.gov.in. This recruitment process will fill the posts of Constable GD, Constable Driver, Constable Trade and others.The selection of candidates will be based on written exam, physical measurement test (PMT), physical efficiency test (PST) and document verification. Candidates from unreserved (UR) and Other Backward Classes (OBC) categories are required to pay Rs 200 as an examination fee, whereas candidates from Scheduled Castes (SC) and Scheduled Tribes (ST) will have to pay Rs 125.A total number of 5,967 posts is to be filled in the department through this recruitment process.District / Unit - Number of PostsAdvertisement
- Total Posts - 5,967Educational Qualification
+    <t>https://www.indiatvnews.com/entertainment/celebrities/nayanthara-shares-romantic-pictures-with-husband-vignesh-shivan-on-his-birthday-see-pics-2023-09-18-893469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      British comedian and actor Russell Brand faces sexual assault allegations: Reports    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comedian, actor, and social influencer Russell Brand has been accused of sexual assault allegations from four women who knew him when he was at the peak of his fame. According to a report in Sunday Times, The Times of London,  Channel 4' Dispatched, from their investigation it has now come up that one woman has allegedly raped her, while three others have accused him of sexual assault. One of the women has even said that Russell had been emotionally and physically abusive.But right after the allegations have surfaced, Russell has denied it and even posted a video regarding this. Though he never mentioned the publication's name, but he pointed it out to the mainstream media and said very serious allegations have been pointed at me. Due to the allegations, many one-man shows of his now stands postponed. 
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/jobs/news/chhattisgarh-police-recruitment-2023-notification-out-for-6000-constable-posts-date-eligibility-criteria-selection-process-syllabus-exam-pattern-2023-10-06-896534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      'Boundaries choti hai na': Pakistan trolled after getting bowled out for 286 against Netherlands in World Cup    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan, led by Babar Azam, started their World Cup campaign today against the Netherlands at the Rajiv Gandhi International Stadium in Hyderabad. After being invited to bat first, the Men in Green found themselves in deep trouble at 38/3 in the first 10 overs. The likes of Fakhar Zaman, Imam-ul-Haq and Babar Azam were dismissed cheaply. However, the middle and lower-middle order batters somehow managed to take the team's score to 286.They didn't even bat their full quota of 50 overs and were bundled out in the penultimate over of the innings. Bas de Leede was the best bowler for the Dutch picking up four wickets for 62 runs while Colin Ackermann picked up a couple while also being economical during his spell. Meanwhile, Pakistan captain Babar and vice-captain Shadab are being trolled for their 'boundaries are small in India' and 'pitches are flat in India' comments ahead of the World Cup.During the captain's day event, Babar had stated that bowlers have very little margin for error in India with boundaries being very small. "The boundaries are small. There is no margin for the bowlers. If the bowling is a little bit off, the batsman utilises it. So, there will be high scores," he had said. On the other hand, Shadab Khan likened the conditions in India to Rawalpindi in Pakistan terming that the pitches are very flat."The conditions in India are similar those in Pakistan. In our last match (the warm-up game in Hyderabad), it felt we were playing in Rawalpindi, where we also have the same flat pitch and short boundaries. We are looking forward to learning more about the pitch," he had said after a warm-up game in Hyderabad.But Pakistan struggled with the bat upfront and at the back end to somehow post a competitive total of 286 runs on the board in their opening game. For the same reason, the fans on social media massively trolled the team and especially their captain for his comments. Here are some of the reactions:Advertisement
+    <t>hollywood</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/hollywood/british-comedian-and-actor-russell-brand-faces-sexual-assault-allegations-reports-2023-09-18-893468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Earthquake of magnitude 6.3 jolts northeast of Taiwan    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan earthquake: United States Geological Survey (USGS) on Monday reported an earthquake of magnitude 6.3 on the Richter scale that jolted northeast of Taiwan. The quake occurred at 18:51:23 (UTC+05:30) and the depth was registered at 183.5 km.Advertisement
+ </t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/earthquake-taiwan-magnitude-northeast-region-united-states-geological-survey-epicentre-casualties-latest-updates-2023-09-18-893464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      WATCH: Dhanush attends assistant's wedding in casual jeans and cap, poses with newlyweds    </t>
+  </si>
+  <si>
+    <t>South star Dhanush, who is currently busy with Captain Miller shoot, took out some time to attend his assistant's wedding reception in Chennai. The actor made a surprise entry at his assistant Anand's wedding. Several pictures and videos of the actor, shared by his fan pages on Instagram, is doing rounds on the internet. In these pictures and videos, Dhanush can be seen interacting and posing with the newlyweds. Anand has been assistant for Dhanush for many years.  Dhanush made his assistant Anand's day as he attended his reception. He arrived for the celebrations along with Ken and his team. For the wedding, the actor opted for a casual look and was seen wearing a beige shirt, blue jeans and a blue cap. Also Read: Shah Rukh Khan-starrer Jawan becomes first Hindi film to mint Rs 50 cr in dubbed versionsCheck out pics and videos: Advertisement
+ The 40-year-old actor on Monday took to his Instagram handle to share a picture of the Ganesh Chaturthi celebration at his home with his two sons, Yatra and Linga. In the picture, the actor can be seen sitting along with his sons and praying to Lord Ganesha. In the caption, he wrote, ''Happy vinayagar chathurthi.''
+Advertisement
+He was last seen in Venky Atluri's directorial Vaathi. He recently wrapped the shoot of Captain Miller and the film is scheduled to release in December this year. Also Read: Allu Arjun begins Ganesh Chaturthi celebration at home, shares picture with wife Sneha</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/celebrities/watch-dhanush-attends-assistant-wedding-in-casual-jeans-and-cap-poses-with-newlyweds-2023-09-18-893461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Jawan: Shah Rukh Khan-starrer becomes first Hindi film to mint Rs 50 cr in dubbed versions    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah Rukh Khan's Jawan is currently on a winning spree, shattering every possible box office record for a Hindi film. Not only its original Hindi version, but its Tamil and Telugu versions are also churning out big at the box office. Within 11 days of its theatrical release, the film has added another feather to its cap and broken another record. Jawan has become the only Hindi film to have crossed the Rs 50 crore mark in its dubbed versions. Trade analyst and film critic Taran Adarsh shared the latest box office figures of Jawan on his social media accounts terming the film as 'Box Office Dinosaur'.
+Also Read: Sunny Deol enjoys pizza party with dad Dharmendra during US vacation, see picAdvertisement
+ </t>
+  </si>
+  <si>
+    <t>bollywood</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/bollywood/jawan-shah-rukh-khan-starrer-becomes-first-hindi-film-to-mint-rs-50-cr-in-dubbed-versions-2023-09-18-893439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Mohanlal-starrer Malaikottai Vaaliban's release date announced; film to clash with Hrithik Roshan's Fighter    </t>
+  </si>
+  <si>
+    <t>Malayalam megastar Mohanlal will be soon seen in the upcoming film Malaikottai Vaaliban as the film has locked its release date for January 25 next year. The pan-India film will be clashing with Hrithik Roshan and Deepika Padukone-starrer Fighter at the box office. Malaikottai Vaaliban has been directed by Lijo Jose Pellissery, whose earlier film Jallikattu was India's official entry to the Oscars, back in 2020.It also stars Sonalee Kulkarni, Hareesh Peradi, Manoj Moses, Katha Nandi, Danish Sait and Manikandan R Achari.
+Also Read: Allu Arjun begins Ganesh Chaturthi celebration at home, shares picture with wife SnehaIn the pocter, Mohanlal is seen in a never before seen avatar. He can be seen sitting on a desert land wearing rural Indian attire. The film is set in the pre-independence era, and is a mass action entertainer with visuals to watch out for as it was shot across Rajasthan, Chennai, and Puducherry for around 130 days.Advertisement
+ Talking about the film, Mohanlal said, "To work with Lijo Jose Pellissery has been very enriching as his cinematic approach is totally unique. His films stand apart not just for their technical finesse but also their themes and this project is no different. I hope, together we will be able to live up to the expectations of the audience."Director Lijo Jose Pellissery said, "This is a period film which demanded someone with the gravitas of Mohanlal sir and we are very proud of what we have created together. Working with a legend like him is indescribable as he comes with a lifetime of experience as an actor. To see him vanish into the character is incredible."
+Advertisement
+The film is written by PS Rafeeque and features cinematography by Madhu Neelakandan and music by Prashanth Pillai.</t>
+  </si>
+  <si>
+    <t>regional-cinema</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/regional-cinema/mohanlal-starrer-malaikottai-vaaliban-release-date-announced-film-to-clash-with-hrithik-roshan-fighter-2023-09-18-893424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      Animal: Ranbir Kapoor makes a swagger appearance in new poster; film's teaser to be out on THIS date    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the romantic comedy Tu Jhoothi Main Makkaar, Ranbir Kapoor is all set to turn 'Animal' in his upcoming action thriller. The makers of Animal on Monday shared a new poster of the film featuring the lead actor. The poster features Ranbir Kapoor in an elegant and wild avatar, showcasing his character's rage.In the poster, Ranbir can be seen donning formal attire with a royal blue blazer, matching shirt, alongwith a square shaped sunglasses. He is looking suave in a long hairstyle, with a cigarette in his mouth, and a lighter in one hand. 
+Also Read: Zareen Khan issues clarification after reports of her being served with arrest warrant surfacesThe poster features Ranbir in a never-seen-before rowdy avatar. Sharing the, poster, T-Series Films wrote “He is elegant He is Wild... You will see his rage on September 28. #AnimalTeaserOn28thSept @AnimalTheFilm #AnimalOn1stDec”. Advertisement
+ Ranbir’s character promises to be a tour de force, and the teaser is going to be a testament to the intensity, and intrigue that this film promises to deliver.Along with the poster, the makers of the film also mentioned the release date of its much-awaited teaser. It will be unveiled on Ranbir's birthday, i.e., September 28 at 10 am.
 Advertisement
 </t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/sports/cricket/boundaries-choti-hai-na-pakistan-trolled-after-getting-bowled-out-for-286-against-netherlands-in-world-cup-2023-10-06-896532</t>
-  </si>
-  <si>
-    <t>Mission Raniganj Review: Did Akshay Kumar as Jaswant Singh Gill justify real story of coal miners? Know here</t>
-  </si>
-  <si>
-    <t>Bollywood's Khiladi Akshay Kumar and Parineeti Chopra-starrer film 'Mission Raniganj' has been released in theaters today. In this film, Akshay Kumar is seen in the role of Jaswant Gill, who was a mining engineer. The story of the film is based on the true story of Jaswant Gill, who saved the lives of 65 people trapped in the flood of coalmine in West Bengal. After doing films like 'Airlift', 'Special 26' and 'Baby', Akshay has come to tell the world the story of another real hero through 'Mission Raniganj', about which many people do not know. How is this movie? How is its story? How is Akshay Kumar's character? Read our review to know.
-Mission Raniganj's story
-The story of the film starts from Raniganj where it is shown how the people there are earning their living by working in the coal mines. A labourer brings a TV to his home with his hard-earned money, on which the entire village gathers at his house to watch the Mahabharata. Everyone looks very happy during this time. On the other hand, Jaswant Singh Gill (Akshay Kumar) comes to Raniganj with his pregnant wife Nazukta (Parineeti Chopra). Jaswant was working as a rescue engineer of Coal India Limited in Raniganj, Kolkata.
-How 71 people got trapped in Raniganj coal mine?
-Now, the real story begins when the coal mine workers were happily leaving for the night shift. About 71 people go inside the mine. After this, blasting is done in the mine below, after which suddenly water starts seeping into the mine. Gradually the flow of water becomes very fast. 71 labourers get trapped 350 feet below. Although, initially six labourers had committed suicide. After this, Akshay Kumar i.e. Jaswant Singh Gill takes the responsibility of saving the lives of 65 people trapped below.
-Who is not only a mining engineer but also a rescue trained officer.
-How Jaswant Singh Gill prepared a capsule to save people?
-Here, the senior officers present at the site try their best to solve this difficult situation. But they fail. Time is less and work is more. The people of the village are also scared because a member of their family is trapped in the coal mine below. Despite all efforts, nothing was working. In such a situation, Gill Sahab gets an idea. They prepare a capsule. Initially no one takes Jaswant Singh Gill seriously but the local management of the mine sees hope in him.
-One and one become eleven with the help of the technician who supports him in doing experiments other than traditional techniques. The work begins. Meanwhile, some people with business rivalries want that this mission should not be successful in any way. Obstacles are put up. Conspiracies are hatched. Now, in such a situation, how many labourers can Jaswant Singh Gill save? To know this, you must go to the theater and watch 'Mission Raniganj'.
-How is the star cast of the film?
-Akshay Kumar does not look like Akshay Kumar in this film. He has worked very hard on the character. From look to language, everything is different. Looking at Akshay Kumar's character in this film, it would not be wrong to say that now Akshay is leaving aside the obsession of box office and focusing on choosing legitimate stories. Even though this film may not be able to collect crores, the story of real hero that Akshay has brought to the people through this film is a big thing in itself.
-Parineeti Chopra is also looking good in the role of Jaswant Singh Gill's wife in this film. People may like her Punjabi acting in the film to a great extent. Apart from these, actors like Kumud Mishra, Pawan Malhotra, Varun Badola, Dibyendu Bhattacharya, Rajesh Sharma, Virendra Saxena, Anand Mahadevan, Jamil Khan, Sudhir Pandey, Ravi Kishan have worked to make the story more powerful with their respective characters. Ravi Kishan's character is worth watching in this film.
-Ravi Kishan, who was seen in the role of 'Bhola', has also contributed to his acting in this film. The supporting characters trapped in the mine have also done a good job.
-Film's direction
-'Mission Raniganj' has been directed by Tinu Suresh Desai. The subject matter of the story is such that if it was not presented well, its soul would have been lost. Director Tinu Suresh Desai deserve a huge round of applause for his work. Desai has maintained his grip from the first shot of the film till the climax. Let us tell you that Tinu has also made the film 'Rustom' with Akshay Kumar in the past. Akshay received the National Award for Best Actor for Rustom. Now, the film 'Mission Raniganj' should be watched. 'Mission Raniganj' takes you 18 years ago, when the workers were facing death and their only hope was Jaswant Singh Gill. If you like a good story and exciting drama then this film is for you, definitely watch it.
-Bollywood's Khiladi Akshay Kumar and Parineeti Chopra-starrer film 'Mission Raniganj' has been released in theaters today. In this film, Akshay Kumar is seen in the role of Jaswant Gill, who was a mining engineer. The story of the film is based on the true story of Jaswant Gill, who saved the lives of 65 people trapped in the flood of coalmine in West Bengal. After doing films like 'Airlift', 'Special 26' and 'Baby', Akshay has come to tell the world the story of another real hero through 'Mission Raniganj', about which many people do not know. How is this movie? How is its story? How is Akshay Kumar's character? Read our review to know.The story of the film starts from Raniganj where it is shown how the people there are earning their living by working in the coal mines. A labourer brings a TV to his home with his hard-earned money, on which the entire village gathers at his house to watch the Mahabharata. Everyone looks very happy during this time. On the other hand, Jaswant Singh Gill (Akshay Kumar) comes to Raniganj with his pregnant wife Nazukta (Parineeti Chopra). Jaswant was working as a rescue engineer of Coal India Limited in Raniganj, Kolkata.Now, the real story begins when the coal mine workers were happily leaving for the night shift. About 71 people go inside the mine. After this, blasting is done in the mine below, after which suddenly water starts seeping into the mine. Gradually the flow of water becomes very fast. 71 labourers get trapped 350 feet below. Although, initially six labourers had committed suicide. After this, Akshay Kumar i.e. Jaswant Singh Gill takes the responsibility of saving the lives of 65 people trapped below.Who is not only a mining engineer but also a rescue trained officer.Here, the senior officers present at the site try their best to solve this difficult situation. But they fail. Time is less and work is more. The people of the village are also scared because a member of their family is trapped in the coal mine below. Despite all efforts, nothing was working. In such a situation, Gill Sahab gets an idea. They prepare a capsule. Initially no one takes Jaswant Singh Gill seriously but the local management of the mine sees hope in him.One and one become eleven with the help of the technician who supports him in doing experiments other than traditional techniques. The work begins. Meanwhile, some people with business rivalries want that this mission should not be successful in any way. Obstacles are put up. Conspiracies are hatched. Now, in such a situation, how many labourers can Jaswant Singh Gill save? To know this, you must go to the theater and watch 'Mission Raniganj'.</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/movie-review/mission-raniganj-movie-review-did-akshay-kumar-as-jaswant-singh-gill-justify-real-story-of-coal-miners-find-out-here-817</t>
+    <t>https://www.indiatvnews.com/entertainment/bollywood/animal-ranbir-kapoor-makes-a-swagger-appearance-in-new-poster-film-teaser-to-be-out-on-this-date-2023-09-18-893385</t>
   </si>
 </sst>
 </file>
@@ -695,35 +693,35 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -737,35 +735,35 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -779,102 +777,105 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
@@ -888,49 +889,49 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>69</v>
@@ -944,7 +945,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>72</v>
